--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2576923.083014757</v>
+        <v>-2577697.317935895</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12.31959957209772</v>
       </c>
       <c r="D8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V8" t="n">
-        <v>12.31959957209774</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>39.88136420416884</v>
       </c>
       <c r="C10" t="n">
-        <v>20.35309587319854</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5051698924239</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>242.0061671048761</v>
+        <v>244.7738555799714</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>217.7992075574081</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0826233815696</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.6612460886614</v>
+        <v>210.6612460886613</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.50067277226627</v>
+        <v>98.50067277226621</v>
       </c>
       <c r="U11" t="n">
         <v>129.2253455572958</v>
@@ -1430,13 +1430,13 @@
         <v>206.3219814235482</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3188769015835</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.6503590321982</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4758316522647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>151.7221713805282</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.90118347567444</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>33.82219360820271</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.29499198457817</v>
+        <v>124.2028195366761</v>
       </c>
       <c r="G12" t="n">
-        <v>13.53656848478147</v>
+        <v>13.53656848478142</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.63490948140139</v>
+        <v>41.63490948140134</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06123001120432</v>
+        <v>75.06123001120426</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6390585394848</v>
+        <v>102.4278184405136</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.6974909406839</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.7781066510289</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.75153637516939</v>
+        <v>57.87245139171263</v>
       </c>
       <c r="C13" t="n">
-        <v>45.12531283223122</v>
+        <v>45.12531283223116</v>
       </c>
       <c r="D13" t="n">
-        <v>26.79432641554824</v>
+        <v>26.79432641554818</v>
       </c>
       <c r="E13" t="n">
-        <v>24.76338407422806</v>
+        <v>24.763384074228</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94778131083338</v>
+        <v>23.94778131083332</v>
       </c>
       <c r="G13" t="n">
-        <v>45.44746136318769</v>
+        <v>40.32654634664527</v>
       </c>
       <c r="H13" t="n">
-        <v>37.37003242217874</v>
+        <v>37.37003242217867</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60389084410409</v>
+        <v>24.60389084410403</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.79836742102027</v>
+        <v>40.79836742102021</v>
       </c>
       <c r="S13" t="n">
-        <v>96.12242798919036</v>
+        <v>96.1224279891903</v>
       </c>
       <c r="T13" t="n">
         <v>105.1347067112988</v>
@@ -1588,13 +1588,13 @@
         <v>130.725110967968</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8813367884444</v>
+        <v>163.8813367884443</v>
       </c>
       <c r="X13" t="n">
         <v>103.9291198333381</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.5374337687971</v>
+        <v>96.53743376879704</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5051698924239</v>
+        <v>261.5051698924238</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7738555799715</v>
+        <v>244.7738555799714</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75.62065619817545</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9067956563163</v>
+        <v>260.9067956563162</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0826233815697</v>
+        <v>285.0826233815696</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.16917062543699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.45148557273776</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6503590321983</v>
+        <v>248.6503590321981</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4758316522647</v>
+        <v>264.4758316522646</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>126.8090110277729</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.8221936082026</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.29499198457806</v>
       </c>
       <c r="G15" t="n">
-        <v>13.53656848478147</v>
+        <v>13.53656848478136</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.63490948140139</v>
+        <v>41.63490948140128</v>
       </c>
       <c r="T15" t="n">
-        <v>75.06123001120432</v>
+        <v>75.0612300112042</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4278184405137</v>
+        <v>102.4278184405136</v>
       </c>
       <c r="V15" t="n">
-        <v>109.697490940684</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7781066510289</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>185.1582170616056</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.87245139171269</v>
+        <v>57.87245139171257</v>
       </c>
       <c r="C16" t="n">
-        <v>45.12531283223122</v>
+        <v>45.1253128322311</v>
       </c>
       <c r="D16" t="n">
-        <v>21.67341139900462</v>
+        <v>26.79432641554813</v>
       </c>
       <c r="E16" t="n">
-        <v>24.76338407422806</v>
+        <v>24.76338407422794</v>
       </c>
       <c r="F16" t="n">
-        <v>23.94778131083338</v>
+        <v>23.94778131083326</v>
       </c>
       <c r="G16" t="n">
-        <v>45.44746136318769</v>
+        <v>45.44746136318758</v>
       </c>
       <c r="H16" t="n">
-        <v>37.37003242217872</v>
+        <v>37.37003242217861</v>
       </c>
       <c r="I16" t="n">
-        <v>24.60389084410407</v>
+        <v>24.60389084410398</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.79836742102027</v>
+        <v>40.79836742102015</v>
       </c>
       <c r="S16" t="n">
-        <v>96.12242798919036</v>
+        <v>96.12242798919024</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1347067112988</v>
+        <v>105.1347067112987</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8284364302049</v>
+        <v>163.8284364302048</v>
       </c>
       <c r="V16" t="n">
-        <v>130.725110967968</v>
+        <v>130.7251109679679</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8813367884444</v>
+        <v>158.7604217719042</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9291198333381</v>
+        <v>103.929119833338</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.5374337687971</v>
+        <v>96.53743376879699</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.10625491313532</v>
+        <v>27.10625491313482</v>
       </c>
       <c r="V17" t="n">
         <v>104.2028907793872</v>
@@ -1980,7 +1980,7 @@
         <v>0.3087277963526656</v>
       </c>
       <c r="V18" t="n">
-        <v>200.5346369163884</v>
+        <v>200.5346369163882</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.920092249116</v>
+        <v>196.9200922491159</v>
       </c>
       <c r="T19" t="n">
-        <v>3.015616067137824</v>
+        <v>3.015616067137825</v>
       </c>
       <c r="U19" t="n">
         <v>61.70934578604395</v>
@@ -2138,7 +2138,7 @@
         <v>27.10625491313482</v>
       </c>
       <c r="V20" t="n">
-        <v>104.2028907793874</v>
+        <v>104.2028907793872</v>
       </c>
       <c r="W20" t="n">
         <v>126.1997862574225</v>
@@ -2169,7 +2169,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>112.1321379602823</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0.3087277963526656</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>200.5346369163882</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.920092249116</v>
       </c>
       <c r="T22" t="n">
-        <v>199.9357083162538</v>
+        <v>3.015616067137824</v>
       </c>
       <c r="U22" t="n">
         <v>61.70934578604395</v>
@@ -2397,16 +2397,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>43.83524092432391</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>139.9602176004864</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.920092249116</v>
+        <v>196.9200922491159</v>
       </c>
       <c r="T25" t="n">
-        <v>3.015616067137824</v>
+        <v>3.015616067137825</v>
       </c>
       <c r="U25" t="n">
         <v>61.70934578604395</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.004322791311</v>
+        <v>241.0043227913111</v>
       </c>
       <c r="C26" t="n">
-        <v>224.2730084788586</v>
+        <v>224.2730084788587</v>
       </c>
       <c r="D26" t="n">
         <v>213.8926455545144</v>
@@ -2564,16 +2564,16 @@
         <v>240.4059485552035</v>
       </c>
       <c r="F26" t="n">
-        <v>264.5817762804568</v>
+        <v>264.5817762804569</v>
       </c>
       <c r="G26" t="n">
         <v>271.6279542002785</v>
       </c>
       <c r="H26" t="n">
-        <v>190.1603989875485</v>
+        <v>190.1603989875486</v>
       </c>
       <c r="I26" t="n">
-        <v>42.66832352432411</v>
+        <v>42.66832352432417</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.42359129441883</v>
+        <v>51.42359129441886</v>
       </c>
       <c r="T26" t="n">
-        <v>77.99982567115339</v>
+        <v>77.99982567115342</v>
       </c>
       <c r="U26" t="n">
-        <v>108.7244984561829</v>
+        <v>108.724498456183</v>
       </c>
       <c r="V26" t="n">
-        <v>185.8211343224353</v>
+        <v>185.8211343224354</v>
       </c>
       <c r="W26" t="n">
         <v>207.8180298004706</v>
@@ -2640,13 +2640,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>13.32134650708983</v>
+        <v>13.32134650708986</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>100.1039431245974</v>
+        <v>21.13406238028854</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2724701101754</v>
+        <v>140.4945422707313</v>
       </c>
       <c r="U27" t="n">
         <v>224.6390585394848</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.37160429059981</v>
+        <v>37.37160429059983</v>
       </c>
       <c r="C28" t="n">
-        <v>24.62446573111833</v>
+        <v>24.62446573111836</v>
       </c>
       <c r="D28" t="n">
-        <v>6.293479314435359</v>
+        <v>6.293479314435388</v>
       </c>
       <c r="E28" t="n">
-        <v>4.262536973115175</v>
+        <v>4.262536973115203</v>
       </c>
       <c r="F28" t="n">
-        <v>3.446934209720496</v>
+        <v>3.446934209720524</v>
       </c>
       <c r="G28" t="n">
-        <v>24.94661426207481</v>
+        <v>24.94661426207484</v>
       </c>
       <c r="H28" t="n">
-        <v>16.86918532106584</v>
+        <v>16.86918532106587</v>
       </c>
       <c r="I28" t="n">
-        <v>4.103043742991204</v>
+        <v>4.103043742991237</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.29752031990738</v>
+        <v>20.29752031990742</v>
       </c>
       <c r="S28" t="n">
-        <v>75.62158088807747</v>
+        <v>75.6215808880775</v>
       </c>
       <c r="T28" t="n">
-        <v>84.63385961018595</v>
+        <v>84.63385961018598</v>
       </c>
       <c r="U28" t="n">
         <v>143.3275893290921</v>
@@ -2773,13 +2773,13 @@
         <v>110.2242638668552</v>
       </c>
       <c r="W28" t="n">
-        <v>143.3804896873315</v>
+        <v>143.3804896873316</v>
       </c>
       <c r="X28" t="n">
-        <v>83.42827273222525</v>
+        <v>83.42827273222528</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.03658666768422</v>
+        <v>76.03658666768425</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>190.1603989875486</v>
       </c>
       <c r="I29" t="n">
-        <v>42.66832352432414</v>
+        <v>42.66832352432415</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.32134650708986</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S30" t="n">
-        <v>21.13406238028854</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T30" t="n">
-        <v>133.5302636544004</v>
+        <v>55.9343424502271</v>
       </c>
       <c r="U30" t="n">
         <v>224.6390585394848</v>
@@ -2968,7 +2968,7 @@
         <v>16.86918532106587</v>
       </c>
       <c r="I31" t="n">
-        <v>4.103043742991233</v>
+        <v>4.103043742991237</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.29752031990741</v>
+        <v>20.29752031990742</v>
       </c>
       <c r="S31" t="n">
         <v>75.6215808880775</v>
@@ -3047,7 +3047,7 @@
         <v>179.842292440646</v>
       </c>
       <c r="I32" t="n">
-        <v>32.35021697742161</v>
+        <v>32.35021697742164</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>90.08213217467613</v>
+        <v>99.60609383811325</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10.81595583338601</v>
+        <v>10.81595583338602</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2724701101754</v>
+        <v>44.24227636318894</v>
       </c>
       <c r="U33" t="n">
         <v>224.6390585394848</v>
@@ -3202,7 +3202,7 @@
         <v>14.62850771517231</v>
       </c>
       <c r="H34" t="n">
-        <v>6.551078774163344</v>
+        <v>6.551078774163345</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.979413773004884</v>
+        <v>9.979413773004891</v>
       </c>
       <c r="S34" t="n">
         <v>65.30347434117498</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>191.1133521783781</v>
+        <v>191.113352178378</v>
       </c>
       <c r="C35" t="n">
-        <v>174.3820378659257</v>
+        <v>174.3820378659256</v>
       </c>
       <c r="D35" t="n">
         <v>164.0016749415814</v>
       </c>
       <c r="E35" t="n">
-        <v>190.5149779422705</v>
+        <v>190.5149779422704</v>
       </c>
       <c r="F35" t="n">
-        <v>214.6908056675239</v>
+        <v>214.6908056675238</v>
       </c>
       <c r="G35" t="n">
         <v>221.7369835873455</v>
       </c>
       <c r="H35" t="n">
-        <v>140.2694283746156</v>
+        <v>140.2694283746155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.532620681485866</v>
+        <v>1.53262068148581</v>
       </c>
       <c r="T35" t="n">
-        <v>28.10885505822043</v>
+        <v>28.10885505822037</v>
       </c>
       <c r="U35" t="n">
-        <v>58.83352784324998</v>
+        <v>58.83352784324993</v>
       </c>
       <c r="V35" t="n">
-        <v>135.9301637095024</v>
+        <v>135.9301637095023</v>
       </c>
       <c r="W35" t="n">
         <v>157.9270591875376</v>
@@ -3357,7 +3357,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>18.9165174509359</v>
+        <v>154.6643260346887</v>
       </c>
       <c r="U36" t="n">
         <v>224.6390585394848</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.73061027514451</v>
+        <v>25.73061027514446</v>
       </c>
       <c r="T37" t="n">
-        <v>34.74288899725299</v>
+        <v>34.74288899725293</v>
       </c>
       <c r="U37" t="n">
-        <v>93.43661871615912</v>
+        <v>93.43661871615906</v>
       </c>
       <c r="V37" t="n">
-        <v>60.33329325392219</v>
+        <v>60.33329325392214</v>
       </c>
       <c r="W37" t="n">
-        <v>93.48951907439857</v>
+        <v>93.48951907439852</v>
       </c>
       <c r="X37" t="n">
-        <v>33.53730211929229</v>
+        <v>33.53730211929224</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.14561605475126</v>
+        <v>26.1456160547512</v>
       </c>
     </row>
     <row r="38">
@@ -3588,7 +3588,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36.40377567114656</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I39" t="n">
-        <v>77.02151396054032</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>42.19219808416921</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2724701101754</v>
+        <v>4.669412297158424</v>
       </c>
       <c r="U39" t="n">
         <v>224.6390585394848</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514446</v>
       </c>
       <c r="T40" t="n">
         <v>34.74288899725293</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C41" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D41" t="n">
-        <v>164.0016749415814</v>
+        <v>164.0016749415815</v>
       </c>
       <c r="E41" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F41" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G41" t="n">
-        <v>221.7369835873455</v>
+        <v>221.7369835873456</v>
       </c>
       <c r="H41" t="n">
-        <v>140.2694283746155</v>
+        <v>140.2694283746156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485895</v>
       </c>
       <c r="T41" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822046</v>
       </c>
       <c r="U41" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784325001</v>
       </c>
       <c r="V41" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W41" t="n">
-        <v>157.9270591875376</v>
+        <v>157.9270591875377</v>
       </c>
       <c r="X41" t="n">
-        <v>178.2585413181524</v>
+        <v>178.2585413181525</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.0840139382188</v>
+        <v>194.0840139382189</v>
       </c>
     </row>
     <row r="42">
@@ -3828,10 +3828,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.595921204173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>163.8461495803725</v>
       </c>
       <c r="T42" t="n">
-        <v>4.669412297158423</v>
+        <v>4.669412297158509</v>
       </c>
       <c r="U42" t="n">
-        <v>140.9503249922659</v>
+        <v>210.7878226966425</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514454</v>
       </c>
       <c r="T43" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725302</v>
       </c>
       <c r="U43" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615915</v>
       </c>
       <c r="V43" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392222</v>
       </c>
       <c r="W43" t="n">
-        <v>93.48951907439852</v>
+        <v>93.4895190743986</v>
       </c>
       <c r="X43" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929232</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475129</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.53262068148581</v>
+        <v>1.532620681485819</v>
       </c>
       <c r="T44" t="n">
         <v>28.10885505822037</v>
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2724701101754</v>
+        <v>154.6643260346887</v>
       </c>
       <c r="U45" t="n">
-        <v>182.030914463998</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514446</v>
       </c>
       <c r="T46" t="n">
         <v>34.74288899725293</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.7972105780223</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C8" t="n">
-        <v>106.7972105780223</v>
+        <v>26.22879804434783</v>
       </c>
       <c r="D8" t="n">
-        <v>66.51300431118504</v>
+        <v>26.22879804434783</v>
       </c>
       <c r="E8" t="n">
-        <v>66.51300431118504</v>
+        <v>26.22879804434783</v>
       </c>
       <c r="F8" t="n">
-        <v>59.14546544195188</v>
+        <v>18.86125917511466</v>
       </c>
       <c r="G8" t="n">
-        <v>44.14065190272872</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="H8" t="n">
         <v>3.856445635891503</v>
@@ -4805,13 +4805,13 @@
         <v>3.190509136333507</v>
       </c>
       <c r="K8" t="n">
-        <v>42.67305969846066</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L8" t="n">
-        <v>42.67305969846066</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="M8" t="n">
-        <v>42.67305969846066</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="N8" t="n">
         <v>76.54140846029554</v>
@@ -4832,22 +4832,22 @@
         <v>159.5254568166754</v>
       </c>
       <c r="T8" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U8" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V8" t="n">
-        <v>147.0814168448595</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W8" t="n">
-        <v>106.7972105780223</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X8" t="n">
-        <v>106.7972105780223</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y8" t="n">
-        <v>106.7972105780223</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.47471540317073</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C9" t="n">
-        <v>43.47471540317073</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D9" t="n">
         <v>43.47471540317073</v>
@@ -4869,37 +4869,37 @@
         <v>43.47471540317073</v>
       </c>
       <c r="F9" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G9" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H9" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I9" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="J9" t="n">
-        <v>10.58381998281841</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K9" t="n">
-        <v>50.06637054494556</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L9" t="n">
-        <v>50.06637054494556</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M9" t="n">
-        <v>50.06637054494556</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N9" t="n">
-        <v>80.56035569242104</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="O9" t="n">
-        <v>120.0429062545482</v>
+        <v>121.638160822715</v>
       </c>
       <c r="P9" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q9" t="n">
         <v>159.5254568166754</v>
@@ -4914,19 +4914,19 @@
         <v>159.5254568166754</v>
       </c>
       <c r="U9" t="n">
-        <v>124.0431279368452</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V9" t="n">
-        <v>83.75892167000794</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W9" t="n">
-        <v>43.47471540317073</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X9" t="n">
-        <v>43.47471540317073</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.47471540317073</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>119.2412505498381</v>
+      </c>
+      <c r="C10" t="n">
+        <v>78.95704428300093</v>
+      </c>
+      <c r="D10" t="n">
         <v>38.67283801616371</v>
       </c>
-      <c r="C10" t="n">
-        <v>18.11415531596316</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18.11415531596316</v>
-      </c>
       <c r="E10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J10" t="n">
-        <v>18.11415531596316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K10" t="n">
         <v>3.190509136333507</v>
@@ -5002,10 +5002,10 @@
         <v>159.5254568166754</v>
       </c>
       <c r="X10" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.95704428300093</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>491.0682032132809</v>
+        <v>1001.825293530527</v>
       </c>
       <c r="C11" t="n">
-        <v>246.6175293699717</v>
+        <v>754.5789747628786</v>
       </c>
       <c r="D11" t="n">
-        <v>246.6175293699717</v>
+        <v>534.579775209941</v>
       </c>
       <c r="E11" t="n">
-        <v>246.6175293699717</v>
+        <v>534.579775209941</v>
       </c>
       <c r="F11" t="n">
         <v>246.6175293699717</v>
@@ -5033,10 +5033,10 @@
         <v>246.6175293699717</v>
       </c>
       <c r="H11" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="I11" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J11" t="n">
         <v>76.42539836894366</v>
@@ -5045,10 +5045,10 @@
         <v>262.5438616526803</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4093511996117</v>
+        <v>545.4093511996116</v>
       </c>
       <c r="M11" t="n">
-        <v>875.3640045234894</v>
+        <v>875.3640045234893</v>
       </c>
       <c r="N11" t="n">
         <v>1195.140494102847</v>
@@ -5057,7 +5057,7 @@
         <v>1450.968014056181</v>
       </c>
       <c r="P11" t="n">
-        <v>1632.37209038949</v>
+        <v>1632.372090389489</v>
       </c>
       <c r="Q11" t="n">
         <v>1691.419595333869</v>
@@ -5075,16 +5075,16 @@
         <v>1461.393314192897</v>
       </c>
       <c r="V11" t="n">
-        <v>1252.98727235093</v>
+        <v>1252.987272350929</v>
       </c>
       <c r="W11" t="n">
-        <v>1022.362144167512</v>
+        <v>1252.987272350929</v>
       </c>
       <c r="X11" t="n">
-        <v>1022.362144167512</v>
+        <v>1001.825293530527</v>
       </c>
       <c r="Y11" t="n">
-        <v>755.2148394682546</v>
+        <v>1001.825293530527</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>280.5729463852279</v>
+        <v>650.9100375942309</v>
       </c>
       <c r="C12" t="n">
-        <v>127.3182278190378</v>
+        <v>478.156922516048</v>
       </c>
       <c r="D12" t="n">
-        <v>103.1756182476495</v>
+        <v>330.5686158749919</v>
       </c>
       <c r="E12" t="n">
-        <v>69.01178632017198</v>
+        <v>172.9590868778466</v>
       </c>
       <c r="F12" t="n">
-        <v>47.50169340645665</v>
+        <v>47.50169340645658</v>
       </c>
       <c r="G12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="H12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="I12" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J12" t="n">
         <v>66.98092231877612</v>
@@ -5130,13 +5130,13 @@
         <v>968.9040463298551</v>
       </c>
       <c r="N12" t="n">
-        <v>992.0545755201933</v>
+        <v>1358.670175336361</v>
       </c>
       <c r="O12" t="n">
-        <v>1324.803995517701</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="P12" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q12" t="n">
         <v>1691.419595333869</v>
@@ -5145,25 +5145,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S12" t="n">
-        <v>1649.364131211242</v>
+        <v>1649.364131211241</v>
       </c>
       <c r="T12" t="n">
-        <v>1573.5447069575</v>
+        <v>1573.544706957499</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.636567018626</v>
+        <v>1470.082264088294</v>
       </c>
       <c r="V12" t="n">
-        <v>1112.385323544227</v>
+        <v>1359.276717683562</v>
       </c>
       <c r="W12" t="n">
-        <v>859.8708318775604</v>
+        <v>1230.207923086563</v>
       </c>
       <c r="X12" t="n">
-        <v>653.3439332831379</v>
+        <v>1023.681024492141</v>
       </c>
       <c r="Y12" t="n">
-        <v>447.6154975067883</v>
+        <v>817.9525887157913</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.184138636285</v>
+        <v>259.0114972054336</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6030145633241</v>
+        <v>213.4303731324728</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5380383860027</v>
+        <v>186.3653969551514</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5245191191056</v>
+        <v>161.3518776882544</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3348410273547</v>
+        <v>137.1621995965036</v>
       </c>
       <c r="G13" t="n">
-        <v>96.42831439787216</v>
+        <v>96.42831439787201</v>
       </c>
       <c r="H13" t="n">
-        <v>58.68080690072192</v>
+        <v>58.68080690072185</v>
       </c>
       <c r="I13" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J13" t="n">
-        <v>83.0275696703296</v>
+        <v>83.02756967032968</v>
       </c>
       <c r="K13" t="n">
-        <v>215.946708311179</v>
+        <v>215.9467083111791</v>
       </c>
       <c r="L13" t="n">
-        <v>408.0057577934582</v>
+        <v>408.0057577934584</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5210528970197</v>
+        <v>614.5210528970199</v>
       </c>
       <c r="N13" t="n">
-        <v>824.1439887949005</v>
+        <v>824.1439887949007</v>
       </c>
       <c r="O13" t="n">
         <v>1011.664187607628</v>
@@ -5221,28 +5221,28 @@
         <v>1227.526033874095</v>
       </c>
       <c r="R13" t="n">
-        <v>1186.31556173165</v>
+        <v>1186.315561731651</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.222200126407</v>
+        <v>1089.222200126408</v>
       </c>
       <c r="T13" t="n">
-        <v>983.025526680651</v>
+        <v>983.0255266806515</v>
       </c>
       <c r="U13" t="n">
-        <v>817.5422575592318</v>
+        <v>817.5422575592315</v>
       </c>
       <c r="V13" t="n">
-        <v>685.4966909249206</v>
+        <v>685.4966909249204</v>
       </c>
       <c r="W13" t="n">
-        <v>519.959987098209</v>
+        <v>519.9599870982089</v>
       </c>
       <c r="X13" t="n">
-        <v>414.9810781756453</v>
+        <v>414.9810781756452</v>
       </c>
       <c r="Y13" t="n">
-        <v>317.4685188132239</v>
+        <v>317.4685188132241</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>896.3864174049554</v>
+        <v>908.9636755592358</v>
       </c>
       <c r="C14" t="n">
-        <v>649.1400986373067</v>
+        <v>661.7173567915879</v>
       </c>
       <c r="D14" t="n">
-        <v>649.1400986373067</v>
+        <v>585.3328555813096</v>
       </c>
       <c r="E14" t="n">
-        <v>385.5978808026438</v>
+        <v>321.7906377466467</v>
       </c>
       <c r="F14" t="n">
-        <v>97.63563496267435</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="G14" t="n">
-        <v>97.63563496267435</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="H14" t="n">
-        <v>97.63563496267435</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="I14" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J14" t="n">
-        <v>76.42539836894383</v>
+        <v>76.42539836894366</v>
       </c>
       <c r="K14" t="n">
-        <v>262.5438616526804</v>
+        <v>262.5438616526803</v>
       </c>
       <c r="L14" t="n">
-        <v>545.4093511996118</v>
+        <v>545.4093511996116</v>
       </c>
       <c r="M14" t="n">
-        <v>875.3640045234895</v>
+        <v>875.3640045234893</v>
       </c>
       <c r="N14" t="n">
         <v>1195.140494102847</v>
@@ -5294,7 +5294,7 @@
         <v>1450.968014056181</v>
       </c>
       <c r="P14" t="n">
-        <v>1632.37209038949</v>
+        <v>1632.372090389489</v>
       </c>
       <c r="Q14" t="n">
         <v>1691.419595333869</v>
@@ -5303,25 +5303,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S14" t="n">
-        <v>1678.842337179589</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="T14" t="n">
-        <v>1678.842337179589</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="U14" t="n">
-        <v>1678.842337179589</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="V14" t="n">
-        <v>1678.842337179589</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="W14" t="n">
-        <v>1678.842337179589</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="X14" t="n">
-        <v>1427.680358359186</v>
+        <v>1440.257616513466</v>
       </c>
       <c r="Y14" t="n">
-        <v>1160.533053659929</v>
+        <v>1173.110311814209</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>670.408434106224</v>
+        <v>404.0186434548955</v>
       </c>
       <c r="C15" t="n">
-        <v>497.6553190280412</v>
+        <v>231.2655283767127</v>
       </c>
       <c r="D15" t="n">
-        <v>350.0670123869851</v>
+        <v>103.1756182476491</v>
       </c>
       <c r="E15" t="n">
-        <v>192.4574833898398</v>
+        <v>69.01178632017174</v>
       </c>
       <c r="F15" t="n">
-        <v>47.50169340645665</v>
+        <v>47.50169340645652</v>
       </c>
       <c r="G15" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="H15" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="I15" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J15" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="K15" t="n">
-        <v>33.82839190667738</v>
+        <v>217.0969600705897</v>
       </c>
       <c r="L15" t="n">
-        <v>341.1052055123163</v>
+        <v>524.3737736762287</v>
       </c>
       <c r="M15" t="n">
-        <v>752.482947753844</v>
+        <v>935.7515159177564</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.109297598977</v>
+        <v>992.0545755201932</v>
       </c>
       <c r="O15" t="n">
-        <v>1503.858717596485</v>
+        <v>1324.803995517701</v>
       </c>
       <c r="P15" t="n">
-        <v>1691.419595333869</v>
+        <v>1575.438199694079</v>
       </c>
       <c r="Q15" t="n">
         <v>1691.419595333869</v>
@@ -5382,7 +5382,7 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.364131211242</v>
+        <v>1649.364131211241</v>
       </c>
       <c r="T15" t="n">
         <v>1573.5447069575</v>
@@ -5391,16 +5391,16 @@
         <v>1470.082264088294</v>
       </c>
       <c r="V15" t="n">
-        <v>1359.276717683563</v>
+        <v>1235.831020613895</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.207923086564</v>
+        <v>983.316528947228</v>
       </c>
       <c r="X15" t="n">
-        <v>1043.179421004134</v>
+        <v>776.7896303528055</v>
       </c>
       <c r="Y15" t="n">
-        <v>837.4509852277845</v>
+        <v>571.0611945764559</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>259.0114972054328</v>
+        <v>264.184138636284</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4303731324719</v>
+        <v>218.6030145633233</v>
       </c>
       <c r="D16" t="n">
-        <v>191.5380383860026</v>
+        <v>191.538038386002</v>
       </c>
       <c r="E16" t="n">
-        <v>166.5245191191056</v>
+        <v>166.5245191191051</v>
       </c>
       <c r="F16" t="n">
-        <v>142.3348410273547</v>
+        <v>142.3348410273543</v>
       </c>
       <c r="G16" t="n">
-        <v>96.42831439787214</v>
+        <v>96.42831439787192</v>
       </c>
       <c r="H16" t="n">
-        <v>58.6808069007219</v>
+        <v>58.6808069007218</v>
       </c>
       <c r="I16" t="n">
-        <v>33.82839190667738</v>
+        <v>33.82839190667737</v>
       </c>
       <c r="J16" t="n">
-        <v>83.02756967032963</v>
+        <v>83.02756967032971</v>
       </c>
       <c r="K16" t="n">
-        <v>215.946708311179</v>
+        <v>215.9467083111792</v>
       </c>
       <c r="L16" t="n">
-        <v>408.0057577934582</v>
+        <v>408.0057577934585</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5210528970197</v>
+        <v>614.5210528970201</v>
       </c>
       <c r="N16" t="n">
-        <v>824.1439887949005</v>
+        <v>824.143988794901</v>
       </c>
       <c r="O16" t="n">
-        <v>1011.664187607628</v>
+        <v>1011.664187607629</v>
       </c>
       <c r="P16" t="n">
-        <v>1166.359658847678</v>
+        <v>1166.359658847679</v>
       </c>
       <c r="Q16" t="n">
-        <v>1227.526033874095</v>
+        <v>1227.526033874096</v>
       </c>
       <c r="R16" t="n">
-        <v>1186.31556173165</v>
+        <v>1186.315561731651</v>
       </c>
       <c r="S16" t="n">
-        <v>1089.222200126407</v>
+        <v>1089.222200126408</v>
       </c>
       <c r="T16" t="n">
-        <v>983.0255266806507</v>
+        <v>983.0255266806521</v>
       </c>
       <c r="U16" t="n">
-        <v>817.5422575592315</v>
+        <v>817.5422575592331</v>
       </c>
       <c r="V16" t="n">
-        <v>685.4966909249204</v>
+        <v>685.4966909249221</v>
       </c>
       <c r="W16" t="n">
-        <v>519.9599870982089</v>
+        <v>525.1326285290593</v>
       </c>
       <c r="X16" t="n">
-        <v>414.9810781756447</v>
+        <v>420.1537196064957</v>
       </c>
       <c r="Y16" t="n">
-        <v>317.4685188132233</v>
+        <v>322.6411602440745</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.3054331173553</v>
+        <v>958.3054331173557</v>
       </c>
       <c r="C17" t="n">
-        <v>814.2097109599709</v>
+        <v>814.2097109599714</v>
       </c>
       <c r="D17" t="n">
-        <v>680.5992038776818</v>
+        <v>680.5992038776823</v>
       </c>
       <c r="E17" t="n">
-        <v>520.2075826532824</v>
+        <v>520.2075826532829</v>
       </c>
       <c r="F17" t="n">
-        <v>335.3959334235767</v>
+        <v>335.3959334235771</v>
       </c>
       <c r="G17" t="n">
         <v>143.4669327597081</v>
@@ -5513,7 +5513,7 @@
         <v>33.82839190667738</v>
       </c>
       <c r="J17" t="n">
-        <v>76.42539836894383</v>
+        <v>76.42539836894382</v>
       </c>
       <c r="K17" t="n">
         <v>262.5438616526804</v>
@@ -5552,13 +5552,13 @@
         <v>1558.784094634352</v>
       </c>
       <c r="W17" t="n">
-        <v>1431.309563061197</v>
+        <v>1431.309563061198</v>
       </c>
       <c r="X17" t="n">
         <v>1283.298180851059</v>
       </c>
       <c r="Y17" t="n">
-        <v>1119.301472762065</v>
+        <v>1119.301472762066</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>752.482947753844</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.109297598977</v>
+        <v>992.0545755201935</v>
       </c>
       <c r="O18" t="n">
-        <v>1503.858717596485</v>
+        <v>1324.803995517701</v>
       </c>
       <c r="P18" t="n">
-        <v>1691.419595333869</v>
+        <v>1575.43819969408</v>
       </c>
       <c r="Q18" t="n">
         <v>1691.419595333869</v>
@@ -5674,7 +5674,7 @@
         <v>33.82839190667738</v>
       </c>
       <c r="K19" t="n">
-        <v>45.75840284954535</v>
+        <v>45.75840284954533</v>
       </c>
       <c r="L19" t="n">
         <v>116.8283246338432</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>958.3054331173551</v>
+        <v>958.3054331173557</v>
       </c>
       <c r="C20" t="n">
-        <v>814.2097109599706</v>
+        <v>814.2097109599714</v>
       </c>
       <c r="D20" t="n">
-        <v>680.5992038776815</v>
+        <v>680.5992038776824</v>
       </c>
       <c r="E20" t="n">
-        <v>520.2075826532822</v>
+        <v>520.207582653283</v>
       </c>
       <c r="F20" t="n">
-        <v>335.3959334235765</v>
+        <v>335.3959334235773</v>
       </c>
       <c r="G20" t="n">
         <v>143.4669327597081</v>
@@ -5750,16 +5750,16 @@
         <v>33.82839190667738</v>
       </c>
       <c r="J20" t="n">
-        <v>76.4253983689438</v>
+        <v>76.42539836894366</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5438616526804</v>
+        <v>262.5438616526803</v>
       </c>
       <c r="L20" t="n">
-        <v>545.4093511996119</v>
+        <v>545.4093511996116</v>
       </c>
       <c r="M20" t="n">
-        <v>875.3640045234895</v>
+        <v>875.3640045234893</v>
       </c>
       <c r="N20" t="n">
         <v>1195.140494102847</v>
@@ -5795,7 +5795,7 @@
         <v>1283.298180851059</v>
       </c>
       <c r="Y20" t="n">
-        <v>1119.301472762065</v>
+        <v>1119.301472762066</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>625.0441284415286</v>
+        <v>656.7351326064447</v>
       </c>
       <c r="C21" t="n">
-        <v>452.2910133633458</v>
+        <v>483.982017528262</v>
       </c>
       <c r="D21" t="n">
-        <v>304.7027067222897</v>
+        <v>336.3937108872058</v>
       </c>
       <c r="E21" t="n">
-        <v>147.0931777251444</v>
+        <v>178.7841818900605</v>
       </c>
       <c r="F21" t="n">
         <v>33.82839190667738</v>
@@ -5865,16 +5865,16 @@
         <v>1691.107749074927</v>
       </c>
       <c r="V21" t="n">
-        <v>1456.856505600528</v>
+        <v>1488.547509765444</v>
       </c>
       <c r="W21" t="n">
-        <v>1204.342013933861</v>
+        <v>1236.033018098777</v>
       </c>
       <c r="X21" t="n">
-        <v>997.8151153394386</v>
+        <v>1029.506119504355</v>
       </c>
       <c r="Y21" t="n">
-        <v>792.0866795630891</v>
+        <v>823.7776837280052</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5935,7 @@
         <v>391.2257148961373</v>
       </c>
       <c r="S22" t="n">
-        <v>391.2257148961373</v>
+        <v>192.3165308061212</v>
       </c>
       <c r="T22" t="n">
         <v>189.2704539706284</v>
@@ -5987,16 +5987,16 @@
         <v>33.82839190667738</v>
       </c>
       <c r="J23" t="n">
-        <v>76.42539836894386</v>
+        <v>76.42539836894382</v>
       </c>
       <c r="K23" t="n">
-        <v>262.5438616526805</v>
+        <v>262.5438616526804</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4093511996116</v>
+        <v>545.4093511996118</v>
       </c>
       <c r="M23" t="n">
-        <v>875.3640045234893</v>
+        <v>875.3640045234895</v>
       </c>
       <c r="N23" t="n">
         <v>1195.140494102847</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>483.982017528262</v>
+        <v>398.4478347615971</v>
       </c>
       <c r="C24" t="n">
-        <v>483.982017528262</v>
+        <v>225.6947196834142</v>
       </c>
       <c r="D24" t="n">
-        <v>336.3937108872058</v>
+        <v>78.1064130423581</v>
       </c>
       <c r="E24" t="n">
-        <v>178.7841818900605</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="F24" t="n">
         <v>33.82839190667738</v>
@@ -6072,19 +6072,19 @@
         <v>250.2494904826884</v>
       </c>
       <c r="L24" t="n">
-        <v>250.2494904826884</v>
+        <v>557.5263040883274</v>
       </c>
       <c r="M24" t="n">
-        <v>573.4282256750607</v>
+        <v>968.9040463298551</v>
       </c>
       <c r="N24" t="n">
-        <v>992.0545755201933</v>
+        <v>1358.670175336361</v>
       </c>
       <c r="O24" t="n">
-        <v>1324.803995517701</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="P24" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q24" t="n">
         <v>1691.419595333869</v>
@@ -6099,19 +6099,19 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U24" t="n">
-        <v>1550.04563816166</v>
+        <v>1464.511455394995</v>
       </c>
       <c r="V24" t="n">
-        <v>1315.794394687261</v>
+        <v>1230.260211920596</v>
       </c>
       <c r="W24" t="n">
-        <v>1063.279903020594</v>
+        <v>977.7457202539296</v>
       </c>
       <c r="X24" t="n">
-        <v>856.753004426172</v>
+        <v>771.2188216595071</v>
       </c>
       <c r="Y24" t="n">
-        <v>651.0245686498224</v>
+        <v>565.4903858831575</v>
       </c>
     </row>
     <row r="25">
@@ -6148,7 +6148,7 @@
         <v>33.82839190667738</v>
       </c>
       <c r="K25" t="n">
-        <v>45.75840284954535</v>
+        <v>45.75840284954533</v>
       </c>
       <c r="L25" t="n">
         <v>116.8283246338432</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.798364829466</v>
+        <v>1519.798364829467</v>
       </c>
       <c r="C26" t="n">
         <v>1293.259972426579</v>
       </c>
       <c r="D26" t="n">
-        <v>1077.206795098786</v>
+        <v>1077.206795098787</v>
       </c>
       <c r="E26" t="n">
-        <v>834.3725036288838</v>
+        <v>834.3725036288843</v>
       </c>
       <c r="F26" t="n">
-        <v>567.1181841536749</v>
+        <v>567.1181841536753</v>
       </c>
       <c r="G26" t="n">
-        <v>292.7465132443026</v>
+        <v>292.7465132443031</v>
       </c>
       <c r="H26" t="n">
-        <v>100.6653021457694</v>
+        <v>100.6653021457695</v>
       </c>
       <c r="I26" t="n">
         <v>57.56598545453296</v>
       </c>
       <c r="J26" t="n">
-        <v>241.4479582448825</v>
+        <v>241.4479582448822</v>
       </c>
       <c r="K26" t="n">
-        <v>568.8513878567023</v>
+        <v>568.8513878567019</v>
       </c>
       <c r="L26" t="n">
-        <v>993.0018437317168</v>
+        <v>993.0018437317162</v>
       </c>
       <c r="M26" t="n">
         <v>1464.241463383677</v>
@@ -6245,7 +6245,7 @@
         <v>2645.104448233927</v>
       </c>
       <c r="Q26" t="n">
-        <v>2845.43691950639</v>
+        <v>2845.436919506389</v>
       </c>
       <c r="R26" t="n">
         <v>2878.299272726648</v>
@@ -6260,16 +6260,16 @@
         <v>2637.745822805683</v>
       </c>
       <c r="V26" t="n">
-        <v>2450.047707328475</v>
+        <v>2450.047707328476</v>
       </c>
       <c r="W26" t="n">
         <v>2240.130505509818</v>
       </c>
       <c r="X26" t="n">
-        <v>2009.676453054176</v>
+        <v>2009.676453054177</v>
       </c>
       <c r="Y26" t="n">
-        <v>1763.237074719679</v>
+        <v>1763.23707471968</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>536.319102719872</v>
+        <v>673.4381012893191</v>
       </c>
       <c r="C27" t="n">
-        <v>363.5659876416893</v>
+        <v>500.6849862111363</v>
       </c>
       <c r="D27" t="n">
-        <v>215.9776810006331</v>
+        <v>353.0966795700802</v>
       </c>
       <c r="E27" t="n">
-        <v>202.5217754379161</v>
+        <v>339.6407740073632</v>
       </c>
       <c r="F27" t="n">
-        <v>57.56598545453296</v>
+        <v>194.68498402398</v>
       </c>
       <c r="G27" t="n">
         <v>57.56598545453296</v>
@@ -6303,7 +6303,7 @@
         <v>57.56598545453296</v>
       </c>
       <c r="J27" t="n">
-        <v>90.71851586663172</v>
+        <v>90.71851586663169</v>
       </c>
       <c r="K27" t="n">
         <v>273.987084030544</v>
@@ -6318,7 +6318,7 @@
         <v>1430.306058867128</v>
       </c>
       <c r="O27" t="n">
-        <v>1763.055478864636</v>
+        <v>1763.055478864635</v>
       </c>
       <c r="P27" t="n">
         <v>2013.689683041014</v>
@@ -6330,25 +6330,25 @@
         <v>2129.671078680803</v>
       </c>
       <c r="S27" t="n">
-        <v>2028.555984615554</v>
+        <v>2108.323540922936</v>
       </c>
       <c r="T27" t="n">
-        <v>1829.290863292144</v>
+        <v>1966.409861861591</v>
       </c>
       <c r="U27" t="n">
-        <v>1602.38272335327</v>
+        <v>1739.501721922718</v>
       </c>
       <c r="V27" t="n">
-        <v>1368.131479878871</v>
+        <v>1505.250478448319</v>
       </c>
       <c r="W27" t="n">
-        <v>1115.616988212204</v>
+        <v>1252.735986781652</v>
       </c>
       <c r="X27" t="n">
-        <v>909.090089617782</v>
+        <v>1046.209088187229</v>
       </c>
       <c r="Y27" t="n">
-        <v>703.3616538414325</v>
+        <v>840.4806524108795</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.966247630817</v>
+        <v>142.9662476308172</v>
       </c>
       <c r="C28" t="n">
-        <v>118.0930499226167</v>
+        <v>118.0930499226169</v>
       </c>
       <c r="D28" t="n">
-        <v>111.7360001100557</v>
+        <v>111.7360001100559</v>
       </c>
       <c r="E28" t="n">
-        <v>107.4304072079192</v>
+        <v>107.4304072079193</v>
       </c>
       <c r="F28" t="n">
-        <v>103.9486554809288</v>
+        <v>103.9486554809289</v>
       </c>
       <c r="G28" t="n">
-        <v>78.75005521620676</v>
+        <v>78.7500552162068</v>
       </c>
       <c r="H28" t="n">
-        <v>61.71047408381701</v>
+        <v>61.71047408381703</v>
       </c>
       <c r="I28" t="n">
         <v>57.56598545453296</v>
       </c>
       <c r="J28" t="n">
-        <v>57.56598545453296</v>
+        <v>127.0610018482869</v>
       </c>
       <c r="K28" t="n">
-        <v>74.32502232927419</v>
+        <v>280.2759791192381</v>
       </c>
       <c r="L28" t="n">
-        <v>286.6799104416552</v>
+        <v>368.1421240981742</v>
       </c>
       <c r="M28" t="n">
-        <v>513.4910441753184</v>
+        <v>594.9532578318374</v>
       </c>
       <c r="N28" t="n">
-        <v>602.1248523752178</v>
+        <v>824.8720323598199</v>
       </c>
       <c r="O28" t="n">
-        <v>809.940889818047</v>
+        <v>891.4031034745659</v>
       </c>
       <c r="P28" t="n">
-        <v>843.6472333601157</v>
+        <v>925.1094470166346</v>
       </c>
       <c r="Q28" t="n">
-        <v>925.1094470166342</v>
+        <v>925.1094470166346</v>
       </c>
       <c r="R28" t="n">
-        <v>904.6069012389501</v>
+        <v>904.6069012389503</v>
       </c>
       <c r="S28" t="n">
-        <v>828.2214659984677</v>
+        <v>828.2214659984679</v>
       </c>
       <c r="T28" t="n">
-        <v>742.7327189174717</v>
+        <v>742.732718917472</v>
       </c>
       <c r="U28" t="n">
-        <v>597.9573761608131</v>
+        <v>597.9573761608133</v>
       </c>
       <c r="V28" t="n">
-        <v>486.6197358912623</v>
+        <v>486.6197358912626</v>
       </c>
       <c r="W28" t="n">
-        <v>341.7909584293113</v>
+        <v>341.7909584293116</v>
       </c>
       <c r="X28" t="n">
-        <v>257.519975871508</v>
+        <v>257.5199758715082</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.7153428738471</v>
+        <v>180.7153428738474</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.798364829467</v>
+        <v>1519.798364829468</v>
       </c>
       <c r="C29" t="n">
-        <v>1293.259972426579</v>
+        <v>1293.25997242658</v>
       </c>
       <c r="D29" t="n">
-        <v>1077.206795098787</v>
+        <v>1077.206795098788</v>
       </c>
       <c r="E29" t="n">
-        <v>834.3725036288845</v>
+        <v>834.3725036288852</v>
       </c>
       <c r="F29" t="n">
-        <v>567.1181841536754</v>
+        <v>567.1181841536762</v>
       </c>
       <c r="G29" t="n">
-        <v>292.7465132443031</v>
+        <v>292.746513244304</v>
       </c>
       <c r="H29" t="n">
         <v>100.6653021457695</v>
@@ -6467,19 +6467,19 @@
         <v>568.8513878567023</v>
       </c>
       <c r="L29" t="n">
-        <v>993.001843731717</v>
+        <v>993.0018437317167</v>
       </c>
       <c r="M29" t="n">
-        <v>1464.241463383678</v>
+        <v>1464.241463383677</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.302919291119</v>
+        <v>1925.302919291118</v>
       </c>
       <c r="O29" t="n">
-        <v>2322.415405572536</v>
+        <v>2322.415405572535</v>
       </c>
       <c r="P29" t="n">
-        <v>2645.104448233928</v>
+        <v>2645.104448233927</v>
       </c>
       <c r="Q29" t="n">
         <v>2845.43691950639</v>
@@ -6488,7 +6488,7 @@
         <v>2878.299272726649</v>
       </c>
       <c r="S29" t="n">
-        <v>2826.356251217134</v>
+        <v>2826.356251217135</v>
       </c>
       <c r="T29" t="n">
         <v>2747.568548519</v>
@@ -6506,7 +6506,7 @@
         <v>2009.676453054177</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.23707471968</v>
+        <v>1763.237074719681</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.4727261543004</v>
+        <v>536.319102719872</v>
       </c>
       <c r="C30" t="n">
-        <v>507.7196110761176</v>
+        <v>363.5659876416893</v>
       </c>
       <c r="D30" t="n">
-        <v>360.1313044350615</v>
+        <v>215.9776810006331</v>
       </c>
       <c r="E30" t="n">
         <v>202.5217754379161</v>
@@ -6555,7 +6555,7 @@
         <v>1430.306058867128</v>
       </c>
       <c r="O30" t="n">
-        <v>1763.055478864636</v>
+        <v>1763.055478864635</v>
       </c>
       <c r="P30" t="n">
         <v>2013.689683041014</v>
@@ -6564,28 +6564,28 @@
         <v>2129.671078680803</v>
       </c>
       <c r="R30" t="n">
-        <v>2129.671078680803</v>
+        <v>2051.29136029275</v>
       </c>
       <c r="S30" t="n">
-        <v>2108.323540922936</v>
+        <v>1885.790199100454</v>
       </c>
       <c r="T30" t="n">
-        <v>1973.444486726572</v>
+        <v>1829.290863292144</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.536346787699</v>
+        <v>1602.38272335327</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.2851033133</v>
+        <v>1368.131479878871</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.770611646633</v>
+        <v>1115.616988212204</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.24371305221</v>
+        <v>909.090089617782</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.5152772758609</v>
+        <v>703.3616538414325</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.9662476308172</v>
+        <v>142.9662476308173</v>
       </c>
       <c r="C31" t="n">
         <v>118.0930499226169</v>
@@ -6610,7 +6610,7 @@
         <v>103.9486554809289</v>
       </c>
       <c r="G31" t="n">
-        <v>78.75005521620682</v>
+        <v>78.75005521620683</v>
       </c>
       <c r="H31" t="n">
         <v>61.71047408381705</v>
@@ -6619,7 +6619,7 @@
         <v>57.56598545453298</v>
       </c>
       <c r="J31" t="n">
-        <v>127.061001848287</v>
+        <v>127.0610018482869</v>
       </c>
       <c r="K31" t="n">
         <v>280.2759791192381</v>
@@ -6628,40 +6628,40 @@
         <v>492.630867231619</v>
       </c>
       <c r="M31" t="n">
-        <v>654.7760105034018</v>
+        <v>578.1570346371991</v>
       </c>
       <c r="N31" t="n">
-        <v>743.4098187033012</v>
+        <v>666.7908428370985</v>
       </c>
       <c r="O31" t="n">
-        <v>809.9408898180474</v>
+        <v>874.6068802799277</v>
       </c>
       <c r="P31" t="n">
-        <v>843.647233360116</v>
+        <v>908.3132238219964</v>
       </c>
       <c r="Q31" t="n">
-        <v>925.1094470166346</v>
+        <v>925.1094470166347</v>
       </c>
       <c r="R31" t="n">
-        <v>904.6069012389503</v>
+        <v>904.6069012389504</v>
       </c>
       <c r="S31" t="n">
-        <v>828.2214659984679</v>
+        <v>828.221465998468</v>
       </c>
       <c r="T31" t="n">
-        <v>742.732718917472</v>
+        <v>742.7327189174721</v>
       </c>
       <c r="U31" t="n">
-        <v>597.9573761608133</v>
+        <v>597.9573761608134</v>
       </c>
       <c r="V31" t="n">
-        <v>486.6197358912626</v>
+        <v>486.6197358912627</v>
       </c>
       <c r="W31" t="n">
         <v>341.7909584293116</v>
       </c>
       <c r="X31" t="n">
-        <v>257.5199758715082</v>
+        <v>257.5199758715083</v>
       </c>
       <c r="Y31" t="n">
         <v>180.7153428738474</v>
@@ -6686,31 +6686,31 @@
         <v>789.4926751111275</v>
       </c>
       <c r="F32" t="n">
-        <v>532.6606854812744</v>
+        <v>532.6606854812746</v>
       </c>
       <c r="G32" t="n">
         <v>268.7113444172577</v>
       </c>
       <c r="H32" t="n">
-        <v>87.05246316407988</v>
+        <v>87.05246316407991</v>
       </c>
       <c r="I32" t="n">
         <v>54.37547631819947</v>
       </c>
       <c r="J32" t="n">
-        <v>248.4723745899826</v>
+        <v>248.4723745899825</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0907296832358</v>
+        <v>586.0907296832357</v>
       </c>
       <c r="L32" t="n">
         <v>1020.456111039684</v>
       </c>
       <c r="M32" t="n">
-        <v>1501.910656173078</v>
+        <v>1405.141270969352</v>
       </c>
       <c r="N32" t="n">
-        <v>1821.687145752436</v>
+        <v>1724.91776054871</v>
       </c>
       <c r="O32" t="n">
         <v>2132.24517231156</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>623.3184797362768</v>
+        <v>777.8944330160612</v>
       </c>
       <c r="C33" t="n">
-        <v>450.565364658094</v>
+        <v>605.1413179378783</v>
       </c>
       <c r="D33" t="n">
-        <v>302.9770580170378</v>
+        <v>457.5530112968221</v>
       </c>
       <c r="E33" t="n">
-        <v>145.3675290198925</v>
+        <v>299.9434822996768</v>
       </c>
       <c r="F33" t="n">
-        <v>145.3675290198925</v>
+        <v>154.9876923162937</v>
       </c>
       <c r="G33" t="n">
         <v>54.37547631819947</v>
@@ -6807,22 +6807,22 @@
         <v>2115.555361631958</v>
       </c>
       <c r="T33" t="n">
-        <v>1916.290240308549</v>
+        <v>2070.866193588333</v>
       </c>
       <c r="U33" t="n">
-        <v>1689.382100369675</v>
+        <v>1843.95805364946</v>
       </c>
       <c r="V33" t="n">
-        <v>1455.130856895276</v>
+        <v>1609.706810175061</v>
       </c>
       <c r="W33" t="n">
-        <v>1202.616365228609</v>
+        <v>1357.192318508394</v>
       </c>
       <c r="X33" t="n">
-        <v>996.0894666341868</v>
+        <v>1150.665419913971</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3610308578372</v>
+        <v>944.9369841376216</v>
       </c>
     </row>
     <row r="34">
@@ -6853,28 +6853,28 @@
         <v>54.37547631819947</v>
       </c>
       <c r="I34" t="n">
-        <v>54.37547631819947</v>
+        <v>60.52838849407165</v>
       </c>
       <c r="J34" t="n">
-        <v>54.37547631819947</v>
+        <v>140.2383303692591</v>
       </c>
       <c r="K34" t="n">
-        <v>66.30548726106744</v>
+        <v>152.1683413121271</v>
       </c>
       <c r="L34" t="n">
-        <v>137.3754090453652</v>
+        <v>223.2382630964249</v>
       </c>
       <c r="M34" t="n">
-        <v>222.9015764509453</v>
+        <v>308.7644305020049</v>
       </c>
       <c r="N34" t="n">
-        <v>311.5353846508447</v>
+        <v>397.3982387019043</v>
       </c>
       <c r="O34" t="n">
-        <v>529.5663475751074</v>
+        <v>501.6787221755188</v>
       </c>
       <c r="P34" t="n">
-        <v>686.884957527104</v>
+        <v>686.8849575271041</v>
       </c>
       <c r="Q34" t="n">
         <v>778.5620966650561</v>
@@ -6914,19 +6914,19 @@
         <v>1159.05140286287</v>
       </c>
       <c r="C35" t="n">
-        <v>982.9079302710259</v>
+        <v>982.9079302710261</v>
       </c>
       <c r="D35" t="n">
-        <v>817.249672754277</v>
+        <v>817.2496727542771</v>
       </c>
       <c r="E35" t="n">
-        <v>624.8103010954178</v>
+        <v>624.810301095418</v>
       </c>
       <c r="F35" t="n">
-        <v>407.9509014312521</v>
+        <v>407.9509014312525</v>
       </c>
       <c r="G35" t="n">
-        <v>183.9741503329246</v>
+        <v>183.9741503329245</v>
       </c>
       <c r="H35" t="n">
         <v>42.28785904543409</v>
@@ -6935,22 +6935,22 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J35" t="n">
-        <v>84.88486550770054</v>
+        <v>275.5618927425874</v>
       </c>
       <c r="K35" t="n">
-        <v>271.0033287914372</v>
+        <v>603.2628044634539</v>
       </c>
       <c r="L35" t="n">
-        <v>553.8688183383686</v>
+        <v>886.1282940103852</v>
       </c>
       <c r="M35" t="n">
-        <v>883.8234716622462</v>
+        <v>1216.082947334263</v>
       </c>
       <c r="N35" t="n">
-        <v>1203.599961241604</v>
+        <v>1535.859436913621</v>
       </c>
       <c r="O35" t="n">
-        <v>1601.009929632067</v>
+        <v>1791.686956866954</v>
       </c>
       <c r="P35" t="n">
         <v>1973.091033200263</v>
@@ -6965,10 +6965,10 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T35" t="n">
-        <v>2084.452067686143</v>
+        <v>2084.452067686142</v>
       </c>
       <c r="U35" t="n">
-        <v>2025.02426178387</v>
+        <v>2025.024261783869</v>
       </c>
       <c r="V35" t="n">
         <v>1887.721066117706</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>802.3135983146485</v>
+        <v>665.1945997452015</v>
       </c>
       <c r="C36" t="n">
-        <v>629.5604832364656</v>
+        <v>492.4414846670186</v>
       </c>
       <c r="D36" t="n">
-        <v>481.9721765954096</v>
+        <v>344.8531780259625</v>
       </c>
       <c r="E36" t="n">
-        <v>324.3626475982643</v>
+        <v>187.2436490288172</v>
       </c>
       <c r="F36" t="n">
-        <v>179.4068576148812</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="G36" t="n">
         <v>42.28785904543409</v>
@@ -7014,10 +7014,10 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J36" t="n">
-        <v>75.44038945753277</v>
+        <v>75.44038945753289</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214452</v>
       </c>
       <c r="L36" t="n">
         <v>565.9857712270841</v>
@@ -7044,22 +7044,22 @@
         <v>2114.392952271704</v>
       </c>
       <c r="T36" t="n">
-        <v>2095.285358886921</v>
+        <v>1958.166360317473</v>
       </c>
       <c r="U36" t="n">
-        <v>1868.377218948047</v>
+        <v>1731.2582203786</v>
       </c>
       <c r="V36" t="n">
-        <v>1634.125975473648</v>
+        <v>1497.006976904201</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.611483806981</v>
+        <v>1244.492485237534</v>
       </c>
       <c r="X36" t="n">
-        <v>1175.084585212559</v>
+        <v>1037.965586643111</v>
       </c>
       <c r="Y36" t="n">
-        <v>969.356149436209</v>
+        <v>832.2371508667619</v>
       </c>
     </row>
     <row r="37">
@@ -7096,46 +7096,46 @@
         <v>42.28785904543409</v>
       </c>
       <c r="K37" t="n">
-        <v>54.21786998830206</v>
+        <v>54.21786998830203</v>
       </c>
       <c r="L37" t="n">
-        <v>139.0175884709388</v>
+        <v>139.0175884709386</v>
       </c>
       <c r="M37" t="n">
-        <v>224.5437558765189</v>
+        <v>224.5437558765186</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1775640764183</v>
+        <v>313.177564076418</v>
       </c>
       <c r="O37" t="n">
-        <v>379.7086351911644</v>
+        <v>379.708635191164</v>
       </c>
       <c r="P37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="Q37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="R37" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="S37" t="n">
-        <v>387.4244633037941</v>
+        <v>387.4244633037938</v>
       </c>
       <c r="T37" t="n">
-        <v>352.3306360338416</v>
+        <v>352.3306360338414</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9502130882263</v>
+        <v>257.9502130882261</v>
       </c>
       <c r="V37" t="n">
-        <v>197.0074926297191</v>
+        <v>197.0074926297189</v>
       </c>
       <c r="W37" t="n">
-        <v>102.5736349788114</v>
+        <v>102.5736349788113</v>
       </c>
       <c r="X37" t="n">
-        <v>68.69757223205153</v>
+        <v>68.69757223205147</v>
       </c>
       <c r="Y37" t="n">
         <v>42.28785904543409</v>
@@ -7169,19 +7169,19 @@
         <v>42.28785904543409</v>
       </c>
       <c r="I38" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315689</v>
       </c>
       <c r="J38" t="n">
-        <v>92.03528612542337</v>
+        <v>92.03528612542331</v>
       </c>
       <c r="K38" t="n">
-        <v>278.15374940916</v>
+        <v>412.5857772285669</v>
       </c>
       <c r="L38" t="n">
-        <v>561.0192389560914</v>
+        <v>695.4512667754982</v>
       </c>
       <c r="M38" t="n">
-        <v>890.973892279969</v>
+        <v>1025.405920099376</v>
       </c>
       <c r="N38" t="n">
         <v>1345.182409678734</v>
@@ -7202,7 +7202,7 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T38" t="n">
-        <v>2084.452067686142</v>
+        <v>2084.452067686143</v>
       </c>
       <c r="U38" t="n">
         <v>2025.02426178387</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1560703760227</v>
+        <v>774.0862317182934</v>
       </c>
       <c r="C39" t="n">
-        <v>449.4029552978399</v>
+        <v>601.3331166401106</v>
       </c>
       <c r="D39" t="n">
-        <v>301.8146486567838</v>
+        <v>453.7448099990544</v>
       </c>
       <c r="E39" t="n">
-        <v>301.8146486567838</v>
+        <v>296.1352810019091</v>
       </c>
       <c r="F39" t="n">
-        <v>156.8588586734006</v>
+        <v>151.179491018526</v>
       </c>
       <c r="G39" t="n">
-        <v>156.8588586734006</v>
+        <v>151.179491018526</v>
       </c>
       <c r="H39" t="n">
-        <v>120.0873680964849</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="I39" t="n">
         <v>42.28785904543409</v>
@@ -7254,7 +7254,7 @@
         <v>75.44038945753283</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7089576214452</v>
+        <v>258.7089576214451</v>
       </c>
       <c r="L39" t="n">
         <v>565.9857712270841</v>
@@ -7278,25 +7278,25 @@
         <v>2114.392952271704</v>
       </c>
       <c r="S39" t="n">
-        <v>2114.392952271704</v>
+        <v>2071.774570368503</v>
       </c>
       <c r="T39" t="n">
-        <v>1915.127830948295</v>
+        <v>2067.057992290565</v>
       </c>
       <c r="U39" t="n">
-        <v>1688.219691009421</v>
+        <v>1840.149852351692</v>
       </c>
       <c r="V39" t="n">
-        <v>1453.968447535022</v>
+        <v>1605.898608877293</v>
       </c>
       <c r="W39" t="n">
-        <v>1201.453955868355</v>
+        <v>1353.384117210626</v>
       </c>
       <c r="X39" t="n">
-        <v>994.9270572739327</v>
+        <v>1146.857218616203</v>
       </c>
       <c r="Y39" t="n">
-        <v>789.1986214975832</v>
+        <v>941.1287828398539</v>
       </c>
     </row>
     <row r="40">
@@ -7333,10 +7333,10 @@
         <v>42.28785904543409</v>
       </c>
       <c r="K40" t="n">
-        <v>54.21786998830206</v>
+        <v>54.21786998830203</v>
       </c>
       <c r="L40" t="n">
-        <v>125.2877917725999</v>
+        <v>125.2877917725998</v>
       </c>
       <c r="M40" t="n">
         <v>210.8139591781799</v>
@@ -7345,7 +7345,7 @@
         <v>299.4477673780793</v>
       </c>
       <c r="O40" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928254</v>
       </c>
       <c r="P40" t="n">
         <v>413.4149787332327</v>
@@ -7388,19 +7388,19 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C41" t="n">
-        <v>982.9079302710269</v>
+        <v>982.9079302710264</v>
       </c>
       <c r="D41" t="n">
-        <v>817.249672754278</v>
+        <v>817.2496727542775</v>
       </c>
       <c r="E41" t="n">
-        <v>624.8103010954189</v>
+        <v>624.8103010954184</v>
       </c>
       <c r="F41" t="n">
-        <v>407.9509014312534</v>
+        <v>407.9509014312528</v>
       </c>
       <c r="G41" t="n">
-        <v>183.9741503329245</v>
+        <v>183.9741503329246</v>
       </c>
       <c r="H41" t="n">
         <v>42.28785904543409</v>
@@ -7409,25 +7409,25 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J41" t="n">
-        <v>84.88486550770054</v>
+        <v>84.88486550770051</v>
       </c>
       <c r="K41" t="n">
-        <v>271.0033287914372</v>
+        <v>461.6803560263239</v>
       </c>
       <c r="L41" t="n">
-        <v>553.8688183383686</v>
+        <v>744.5458455732552</v>
       </c>
       <c r="M41" t="n">
-        <v>883.8234716622462</v>
+        <v>1216.082947334263</v>
       </c>
       <c r="N41" t="n">
-        <v>1203.599961241604</v>
+        <v>1535.859436913621</v>
       </c>
       <c r="O41" t="n">
-        <v>1459.427481194938</v>
+        <v>1791.686956866954</v>
       </c>
       <c r="P41" t="n">
-        <v>1782.414005965376</v>
+        <v>1973.091033200263</v>
       </c>
       <c r="Q41" t="n">
         <v>2032.138538144642</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>657.3578083312655</v>
+        <v>665.1945997452015</v>
       </c>
       <c r="C42" t="n">
-        <v>484.6046932530826</v>
+        <v>492.4414846670186</v>
       </c>
       <c r="D42" t="n">
-        <v>337.0163866120265</v>
+        <v>344.8531780259625</v>
       </c>
       <c r="E42" t="n">
-        <v>179.4068576148812</v>
+        <v>187.2436490288172</v>
       </c>
       <c r="F42" t="n">
-        <v>179.4068576148812</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="G42" t="n">
         <v>42.28785904543409</v>
@@ -7488,10 +7488,10 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J42" t="n">
-        <v>75.44038945753277</v>
+        <v>75.44038945753289</v>
       </c>
       <c r="K42" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214452</v>
       </c>
       <c r="L42" t="n">
         <v>565.9857712270841</v>
@@ -7512,28 +7512,28 @@
         <v>2114.392952271704</v>
       </c>
       <c r="R42" t="n">
-        <v>2036.013233883651</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="S42" t="n">
-        <v>1870.512072691355</v>
+        <v>1948.891791079409</v>
       </c>
       <c r="T42" t="n">
-        <v>1865.795494613418</v>
+        <v>1944.175213001471</v>
       </c>
       <c r="U42" t="n">
-        <v>1723.421428964664</v>
+        <v>1731.2582203786</v>
       </c>
       <c r="V42" t="n">
-        <v>1489.170185490265</v>
+        <v>1497.006976904201</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.655693823598</v>
+        <v>1244.492485237534</v>
       </c>
       <c r="X42" t="n">
-        <v>1030.128795229175</v>
+        <v>1037.965586643111</v>
       </c>
       <c r="Y42" t="n">
-        <v>824.4003594528259</v>
+        <v>832.2371508667619</v>
       </c>
     </row>
     <row r="43">
@@ -7570,10 +7570,10 @@
         <v>42.28785904543409</v>
       </c>
       <c r="K43" t="n">
-        <v>54.21786998830206</v>
+        <v>54.21786998830203</v>
       </c>
       <c r="L43" t="n">
-        <v>125.2877917725999</v>
+        <v>125.2877917725998</v>
       </c>
       <c r="M43" t="n">
         <v>210.8139591781799</v>
@@ -7585,31 +7585,31 @@
         <v>365.9788384928254</v>
       </c>
       <c r="P43" t="n">
-        <v>399.6851820348941</v>
+        <v>399.685182034894</v>
       </c>
       <c r="Q43" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332332</v>
       </c>
       <c r="R43" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332332</v>
       </c>
       <c r="S43" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037943</v>
       </c>
       <c r="T43" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338417</v>
       </c>
       <c r="U43" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882264</v>
       </c>
       <c r="V43" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297191</v>
       </c>
       <c r="W43" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788115</v>
       </c>
       <c r="X43" t="n">
-        <v>68.69757223205147</v>
+        <v>68.69757223205156</v>
       </c>
       <c r="Y43" t="n">
         <v>42.28785904543409</v>
@@ -7643,28 +7643,28 @@
         <v>42.28785904543409</v>
       </c>
       <c r="I44" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315689</v>
       </c>
       <c r="J44" t="n">
-        <v>92.03528612542337</v>
+        <v>282.7123133603102</v>
       </c>
       <c r="K44" t="n">
-        <v>278.15374940916</v>
+        <v>468.8307766440468</v>
       </c>
       <c r="L44" t="n">
-        <v>561.0192389560914</v>
+        <v>751.6962661909781</v>
       </c>
       <c r="M44" t="n">
-        <v>1025.405920099375</v>
+        <v>1081.650919514856</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.182409678733</v>
+        <v>1401.427409094214</v>
       </c>
       <c r="O44" t="n">
-        <v>1601.009929632067</v>
+        <v>1657.254929047547</v>
       </c>
       <c r="P44" t="n">
-        <v>1973.091033200263</v>
+        <v>1838.659005380856</v>
       </c>
       <c r="Q44" t="n">
         <v>2032.138538144642</v>
@@ -7725,16 +7725,16 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J45" t="n">
-        <v>75.44038945753283</v>
+        <v>75.440389457533</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7089576214452</v>
+        <v>258.7089576214453</v>
       </c>
       <c r="L45" t="n">
-        <v>565.9857712270841</v>
+        <v>565.9857712270842</v>
       </c>
       <c r="M45" t="n">
-        <v>977.3635134686118</v>
+        <v>977.3635134686119</v>
       </c>
       <c r="N45" t="n">
         <v>1415.027932458029</v>
@@ -7755,7 +7755,7 @@
         <v>2114.392952271704</v>
       </c>
       <c r="T45" t="n">
-        <v>1915.127830948295</v>
+        <v>1958.166360317473</v>
       </c>
       <c r="U45" t="n">
         <v>1731.2582203786</v>
@@ -7807,10 +7807,10 @@
         <v>42.28785904543409</v>
       </c>
       <c r="K46" t="n">
-        <v>54.21786998830206</v>
+        <v>54.21786998830203</v>
       </c>
       <c r="L46" t="n">
-        <v>125.2877917725999</v>
+        <v>125.2877917725998</v>
       </c>
       <c r="M46" t="n">
         <v>210.8139591781799</v>
@@ -7819,10 +7819,10 @@
         <v>299.4477673780793</v>
       </c>
       <c r="O46" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928254</v>
       </c>
       <c r="P46" t="n">
-        <v>413.4149787332327</v>
+        <v>399.685182034894</v>
       </c>
       <c r="Q46" t="n">
         <v>413.4149787332327</v>
@@ -8453,16 +8453,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>254.4689689730249</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>264.0827078905203</v>
       </c>
       <c r="M8" t="n">
         <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
-        <v>257.8881903014588</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O8" t="n">
         <v>264.2271203403134</v>
@@ -8529,28 +8529,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>174.2767672041689</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N9" t="n">
-        <v>158.8601744807202</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O9" t="n">
         <v>178.9127025375022</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>168.8950431824673</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.3635939380398</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>79.81517053034747</v>
+        <v>450.133958223446</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>78.03541658111206</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.64727229735978</v>
+        <v>97.64727229735979</v>
       </c>
       <c r="K15" t="n">
-        <v>89.92408067094814</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.2856964442811</v>
+        <v>113.3025749870127</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4908486390762</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.3274543566071</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.64727229735978</v>
+        <v>97.64727229735979</v>
       </c>
       <c r="K18" t="n">
-        <v>89.92408067094814</v>
+        <v>89.92408067094817</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.2856964442811</v>
+        <v>298.4223408091467</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4908486390762</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.3274543566071</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9720,22 +9720,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>75.29333931192181</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>395.2433601897419</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.2856964442811</v>
+        <v>450.133958223446</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>78.03541658111206</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540253</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5051698924239</v>
       </c>
       <c r="C11" t="n">
-        <v>2.767688475095383</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.3934926556273</v>
+        <v>16.59428509821909</v>
       </c>
       <c r="E11" t="n">
         <v>260.9067956563163</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0826233815697</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1288013013914</v>
+        <v>292.1288013013913</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.169170625437</v>
+        <v>63.16917062543695</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92443839553171</v>
+        <v>71.92443839553175</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3188769015834</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6503590321983</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.4758316522646</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.120915016543293</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.120915016542369</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3934926556273</v>
+        <v>158.7728364574517</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1288013013914</v>
+        <v>292.1288013013913</v>
       </c>
       <c r="H14" t="n">
-        <v>210.6612460886614</v>
+        <v>210.6612460886613</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.16917062543689</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.47295282279394</v>
+        <v>71.9244383955316</v>
       </c>
       <c r="T14" t="n">
-        <v>98.50067277226627</v>
+        <v>98.50067277226616</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2253455572958</v>
+        <v>129.2253455572957</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3219814235482</v>
+        <v>206.3219814235481</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3188769015835</v>
+        <v>228.3188769015833</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.120915016543616</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>5.120915016540124</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.544036877095678e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26320,22 +26320,22 @@
         <v>101739.9260768671</v>
       </c>
       <c r="E2" t="n">
-        <v>87207.28080506192</v>
+        <v>87207.28080506191</v>
       </c>
       <c r="F2" t="n">
-        <v>87207.28080506198</v>
+        <v>87207.28080506202</v>
       </c>
       <c r="G2" t="n">
         <v>101739.926076867</v>
       </c>
       <c r="H2" t="n">
-        <v>101739.926076867</v>
+        <v>101739.9260768671</v>
       </c>
       <c r="I2" t="n">
         <v>101739.926076867</v>
       </c>
       <c r="J2" t="n">
-        <v>101739.9260768671</v>
+        <v>101739.9260768672</v>
       </c>
       <c r="K2" t="n">
         <v>101739.9260768671</v>
@@ -26344,13 +26344,13 @@
         <v>101739.9260768671</v>
       </c>
       <c r="M2" t="n">
-        <v>101739.9260768671</v>
+        <v>101739.926076867</v>
       </c>
       <c r="N2" t="n">
         <v>101739.9260768671</v>
       </c>
       <c r="O2" t="n">
-        <v>101739.9260768671</v>
+        <v>101739.926076867</v>
       </c>
       <c r="P2" t="n">
         <v>101739.9260768671</v>
@@ -26375,10 +26375,10 @@
         <v>314982.2527306583</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81695.2725153288</v>
+        <v>81695.27251532872</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89949.75775285083</v>
+        <v>89949.75775285074</v>
       </c>
       <c r="M3" t="n">
-        <v>89443.29579105625</v>
+        <v>89443.29579105627</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32474.3972447384</v>
+        <v>32474.39724473835</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>233454.3231975458</v>
       </c>
       <c r="F4" t="n">
-        <v>233454.3231975458</v>
+        <v>233454.3231975459</v>
       </c>
       <c r="G4" t="n">
         <v>299551.6789532357</v>
@@ -26442,22 +26442,22 @@
         <v>295003.1184993647</v>
       </c>
       <c r="K4" t="n">
-        <v>295003.1184993647</v>
+        <v>295003.1184993646</v>
       </c>
       <c r="L4" t="n">
         <v>294796.8040555407</v>
       </c>
       <c r="M4" t="n">
-        <v>294074.4037443043</v>
+        <v>294074.4037443044</v>
       </c>
       <c r="N4" t="n">
         <v>294074.4037443044</v>
       </c>
       <c r="O4" t="n">
+        <v>294074.4037443043</v>
+      </c>
+      <c r="P4" t="n">
         <v>294074.4037443044</v>
-      </c>
-      <c r="P4" t="n">
-        <v>294074.4037443043</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>36052.38694361346</v>
       </c>
       <c r="E5" t="n">
-        <v>38774.97418276354</v>
+        <v>38774.97418276353</v>
       </c>
       <c r="F5" t="n">
         <v>38774.97418276354</v>
@@ -26491,10 +26491,10 @@
         <v>47360.02401412751</v>
       </c>
       <c r="J5" t="n">
+        <v>58539.03099407722</v>
+      </c>
+      <c r="K5" t="n">
         <v>58539.03099407723</v>
-      </c>
-      <c r="K5" t="n">
-        <v>58539.03099407724</v>
       </c>
       <c r="L5" t="n">
         <v>56981.67694975533</v>
@@ -26503,13 +26503,13 @@
         <v>51121.93893162075</v>
       </c>
       <c r="N5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162075</v>
       </c>
       <c r="O5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162075</v>
       </c>
       <c r="P5" t="n">
-        <v>51121.93893162076</v>
+        <v>51121.93893162075</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322288.8911419273</v>
+        <v>-322293.2987190753</v>
       </c>
       <c r="C6" t="n">
-        <v>-322288.8911419273</v>
+        <v>-322293.2987190753</v>
       </c>
       <c r="D6" t="n">
-        <v>-330212.5626101147</v>
+        <v>-330212.5626101146</v>
       </c>
       <c r="E6" t="n">
-        <v>-500004.2693059057</v>
+        <v>-500294.9222113419</v>
       </c>
       <c r="F6" t="n">
-        <v>-185022.0165752474</v>
+        <v>-185312.6694806835</v>
       </c>
       <c r="G6" t="n">
         <v>-326867.0494058249</v>
@@ -26546,22 +26546,22 @@
         <v>-361911.6072392522</v>
       </c>
       <c r="K6" t="n">
-        <v>-251802.2234165749</v>
+        <v>-251802.2234165747</v>
       </c>
       <c r="L6" t="n">
-        <v>-339988.3126812798</v>
+        <v>-339988.3126812797</v>
       </c>
       <c r="M6" t="n">
-        <v>-332899.7123901143</v>
+        <v>-332899.7123901144</v>
       </c>
       <c r="N6" t="n">
+        <v>-243456.4165990581</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-275930.8138437964</v>
+      </c>
+      <c r="P6" t="n">
         <v>-243456.4165990582</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-275930.8138437965</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-243456.416599058</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G2" t="n">
         <v>224.3303307431321</v>
@@ -26722,7 +26722,7 @@
         <v>192.603057813017</v>
       </c>
       <c r="O2" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="P2" t="n">
         <v>192.603057813017</v>
@@ -26759,25 +26759,25 @@
         <v>128.0375958627671</v>
       </c>
       <c r="J3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="K3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="L3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="M3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="N3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="O3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
       <c r="P3" t="n">
-        <v>128.0375958627671</v>
+        <v>128.037595862767</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334672</v>
       </c>
       <c r="F4" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334672</v>
       </c>
       <c r="G4" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334672</v>
       </c>
       <c r="H4" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334672</v>
       </c>
       <c r="I4" t="n">
         <v>422.8548988334672</v>
       </c>
       <c r="J4" t="n">
-        <v>719.5748181816621</v>
+        <v>719.574818181662</v>
       </c>
       <c r="K4" t="n">
         <v>719.5748181816622</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102.119090644161</v>
+        <v>102.1190906441609</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.59299655592299</v>
+        <v>40.59299655592302</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4371971910635</v>
+        <v>112.4371971910634</v>
       </c>
       <c r="M2" t="n">
-        <v>39.57286406603046</v>
+        <v>39.57286406603052</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592299</v>
+        <v>40.59299655592294</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>382.9735346292985</v>
+        <v>382.9735346292983</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.7199193481948</v>
+        <v>296.7199193481947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.8783187197312</v>
+        <v>231.8783187197311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.119090644161</v>
+        <v>102.1190906441609</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592299</v>
+        <v>40.59299655592302</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="M4" t="n">
-        <v>382.9735346292985</v>
+        <v>382.9735346292983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>354.6654961068449</v>
       </c>
       <c r="D8" t="n">
-        <v>316.7233685504295</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>298.2625391839845</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
@@ -27904,22 +27904,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V8" t="n">
-        <v>316.2136219504216</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>310.6487527963857</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>135.8980783363691</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>103.6248678793804</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27950,7 +27950,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>46.62217926130283</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>189.5296714761693</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>192.0273668354863</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>210.1079825458312</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28011,13 +28011,13 @@
         <v>140.202327286515</v>
       </c>
       <c r="C10" t="n">
-        <v>146.9834570580038</v>
+        <v>127.4551887270335</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>109.1242023103505</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>111.8471185821673</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28035,7 +28035,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>186.2589957281404</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.8673096635994</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="C11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="D11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="E11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>109.5177910180045</v>
       </c>
       <c r="S11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="W11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="X11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.30341254687283</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.2112400989711</v>
+        <v>19.30341254687318</v>
       </c>
       <c r="G12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H12" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I12" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,19 +28217,19 @@
         <v>77.595921204173</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T12" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="C13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="E13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="I13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="J13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="K13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="L13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="M13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="N13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="O13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="P13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="R13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="S13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="W13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="X13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="C14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="D14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="E14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>109.5177910180045</v>
       </c>
       <c r="S14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="W14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="X14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
     </row>
     <row r="15">
@@ -28409,22 +28409,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>19.30341254687265</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H15" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I15" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>77.595921204173</v>
       </c>
       <c r="S15" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T15" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U15" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V15" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.2112400989711</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>19.30341254687266</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="C16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="E16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="I16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="J16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="K16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="L16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="M16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="N16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="O16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="P16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="R16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="S16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="T16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="U16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="V16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="W16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="X16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.2112400989711</v>
+        <v>122.2112400989712</v>
       </c>
     </row>
     <row r="17">
@@ -28661,7 +28661,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I18" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="V18" t="n">
-        <v>31.37409412326676</v>
+        <v>31.37409412326696</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057035</v>
       </c>
       <c r="R19" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S19" t="n">
-        <v>21.41357583904548</v>
+        <v>21.41357583904554</v>
       </c>
       <c r="T19" t="n">
         <v>224.3303307431321</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>31.37409412326697</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.7478085837526</v>
@@ -28937,7 +28937,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>31.37409412326696</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29007,10 +29007,10 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S22" t="n">
-        <v>218.3336680881615</v>
+        <v>21.41357583904548</v>
       </c>
       <c r="T22" t="n">
-        <v>27.41023849401611</v>
+        <v>224.3303307431321</v>
       </c>
       <c r="U22" t="n">
         <v>224.3303307431321</v>
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>112.1981927828499</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7478085837526</v>
@@ -29135,7 +29135,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I24" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>197.2724701101754</v>
       </c>
       <c r="U24" t="n">
-        <v>84.67884093899835</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057035</v>
       </c>
       <c r="R25" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S25" t="n">
-        <v>21.41357583904548</v>
+        <v>21.41357583904554</v>
       </c>
       <c r="T25" t="n">
         <v>224.3303307431321</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I27" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.595921204173</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S27" t="n">
-        <v>63.74220645577515</v>
+        <v>142.712087200084</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>56.77792783944417</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>142.712087200084</v>
       </c>
       <c r="J28" t="n">
-        <v>72.51510094376681</v>
+        <v>142.712087200084</v>
       </c>
       <c r="K28" t="n">
-        <v>4.877803971589156</v>
+        <v>142.712087200084</v>
       </c>
       <c r="L28" t="n">
-        <v>142.712087200084</v>
+        <v>16.96588201478623</v>
       </c>
       <c r="M28" t="n">
         <v>142.712087200084</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="O28" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.712087200084</v>
+        <v>60.42702290057035</v>
       </c>
       <c r="R28" t="n">
         <v>142.712087200084</v>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I30" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.595921204173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>63.74220645577509</v>
+        <v>141.3381276599484</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29700,19 +29700,19 @@
         <v>142.712087200084</v>
       </c>
       <c r="M31" t="n">
-        <v>77.39290491535628</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.712087200084</v>
+        <v>77.3929049153565</v>
       </c>
       <c r="R31" t="n">
         <v>142.712087200084</v>
@@ -29779,13 +29779,13 @@
         <v>153.0301937469865</v>
       </c>
       <c r="M32" t="n">
+        <v>55.2833400058492</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>153.0301937469865</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>55.28334000584857</v>
       </c>
       <c r="P32" t="n">
         <v>153.0301937469865</v>
@@ -29837,16 +29837,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>45.66567640907647</v>
+        <v>36.14171474563935</v>
       </c>
       <c r="H33" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I33" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.595921204173</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S33" t="n">
         <v>153.0301937469865</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>153.0301937469865</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29925,10 +29925,10 @@
         <v>153.0301937469865</v>
       </c>
       <c r="I34" t="n">
-        <v>146.8151309430752</v>
+        <v>153.0301937469865</v>
       </c>
       <c r="J34" t="n">
-        <v>72.51510094376681</v>
+        <v>153.0301937469865</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,10 +29943,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>38.13071955441258</v>
+      </c>
+      <c r="P34" t="n">
         <v>153.0301937469865</v>
-      </c>
-      <c r="P34" t="n">
-        <v>124.8608751615434</v>
       </c>
       <c r="Q34" t="n">
         <v>153.0301937469865</v>
@@ -30007,10 +30007,10 @@
         <v>185.3804107244081</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>143.0125741789191</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,10 +30022,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>143.0125741789187</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H36" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I36" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.595921204173</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S36" t="n">
         <v>163.8461495803725</v>
       </c>
       <c r="T36" t="n">
-        <v>178.3559526592395</v>
+        <v>42.60814407548673</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30165,13 +30165,13 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J37" t="n">
-        <v>72.51510094376681</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>13.86848151347365</v>
+        <v>13.86848151347347</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057035</v>
       </c>
       <c r="R37" t="n">
         <v>163.0096075199914</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.7899270903101</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7899270903098</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>135.7478085837526</v>
       </c>
       <c r="H39" t="n">
-        <v>71.39893998221439</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.595921204173</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S39" t="n">
-        <v>163.8461495803725</v>
+        <v>121.6539514962033</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J40" t="n">
-        <v>72.51510094376681</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>13.86848151347331</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>13.86848151347338</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.42702290057034</v>
+        <v>60.42702290057035</v>
       </c>
       <c r="R40" t="n">
         <v>163.0096075199914</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="C41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="D41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="E41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="F41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="G41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="H41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="I41" t="n">
         <v>185.3804107244081</v>
@@ -30484,13 +30484,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.0125741789192</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>143.0125741789188</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="S41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="42">
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H42" t="n">
         <v>107.8027156533609</v>
       </c>
       <c r="I42" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U42" t="n">
-        <v>83.68873354721887</v>
+        <v>13.85123584284224</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J43" t="n">
-        <v>72.51510094376681</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.29550441404366</v>
+        <v>74.29550441404425</v>
       </c>
       <c r="R43" t="n">
         <v>163.0096075199914</v>
       </c>
       <c r="S43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="T43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="U43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="V43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="W43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="X43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.603057813017</v>
+        <v>192.6030578130169</v>
       </c>
     </row>
     <row r="44">
@@ -30718,7 +30718,7 @@
         <v>192.603057813017</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>135.7899270903092</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>135.78992709031</v>
       </c>
       <c r="R44" t="n">
         <v>192.603057813017</v>
@@ -30794,7 +30794,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I45" t="n">
-        <v>77.02151396054032</v>
+        <v>77.02151396054033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.595921204173</v>
+        <v>77.59592120417301</v>
       </c>
       <c r="S45" t="n">
         <v>163.8461495803725</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>42.60814407548673</v>
       </c>
       <c r="U45" t="n">
-        <v>42.60814407548679</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>146.8151309430752</v>
       </c>
       <c r="J46" t="n">
-        <v>72.51510094376681</v>
+        <v>72.51510094376683</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.86848151347331</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.42702290057034</v>
+        <v>74.29550441404373</v>
       </c>
       <c r="R46" t="n">
         <v>163.0096075199914</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.51472400346841</v>
       </c>
       <c r="H11" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520855</v>
       </c>
       <c r="I11" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J11" t="n">
-        <v>43.68655638937702</v>
+        <v>43.686556389377</v>
       </c>
       <c r="K11" t="n">
-        <v>65.47482345619483</v>
+        <v>65.4748234561948</v>
       </c>
       <c r="L11" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734117</v>
       </c>
       <c r="M11" t="n">
-        <v>90.38103117402254</v>
+        <v>90.3810311740225</v>
       </c>
       <c r="N11" t="n">
-        <v>91.84349074887717</v>
+        <v>91.84349074887713</v>
       </c>
       <c r="O11" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938812</v>
       </c>
       <c r="P11" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376174</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954929</v>
       </c>
       <c r="R11" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287253</v>
       </c>
       <c r="S11" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T11" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897254</v>
       </c>
       <c r="H12" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771822</v>
       </c>
       <c r="I12" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931337</v>
       </c>
       <c r="J12" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K12" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905184</v>
       </c>
       <c r="L12" t="n">
-        <v>59.79718097345554</v>
+        <v>59.79718097345551</v>
       </c>
       <c r="M12" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520804</v>
       </c>
       <c r="N12" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043608</v>
       </c>
       <c r="O12" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554269</v>
       </c>
       <c r="P12" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785993</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.15477537726391</v>
+        <v>35.1547753772639</v>
       </c>
       <c r="R12" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S12" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271869</v>
       </c>
       <c r="T12" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642931</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492521</v>
       </c>
       <c r="H13" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I13" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328419</v>
       </c>
       <c r="J13" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401212</v>
       </c>
       <c r="K13" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174037</v>
       </c>
       <c r="L13" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310972</v>
       </c>
       <c r="M13" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N13" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717966</v>
       </c>
       <c r="O13" t="n">
-        <v>32.63489410613612</v>
+        <v>32.63489410613611</v>
       </c>
       <c r="P13" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997135</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S13" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261055</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377131</v>
       </c>
       <c r="U13" t="n">
         <v>0.01259386188814104</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.51472400346841</v>
       </c>
       <c r="H14" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520855</v>
       </c>
       <c r="I14" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J14" t="n">
-        <v>43.68655638937702</v>
+        <v>43.686556389377</v>
       </c>
       <c r="K14" t="n">
-        <v>65.47482345619483</v>
+        <v>65.4748234561948</v>
       </c>
       <c r="L14" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734117</v>
       </c>
       <c r="M14" t="n">
-        <v>90.38103117402254</v>
+        <v>90.3810311740225</v>
       </c>
       <c r="N14" t="n">
-        <v>91.84349074887717</v>
+        <v>91.84349074887713</v>
       </c>
       <c r="O14" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938812</v>
       </c>
       <c r="P14" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376174</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954929</v>
       </c>
       <c r="R14" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287253</v>
       </c>
       <c r="S14" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T14" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182966</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897254</v>
       </c>
       <c r="H15" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771822</v>
       </c>
       <c r="I15" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931337</v>
       </c>
       <c r="J15" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K15" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905184</v>
       </c>
       <c r="L15" t="n">
-        <v>59.79718097345554</v>
+        <v>59.79718097345551</v>
       </c>
       <c r="M15" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520804</v>
       </c>
       <c r="N15" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043608</v>
       </c>
       <c r="O15" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554269</v>
       </c>
       <c r="P15" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785993</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.15477537726391</v>
+        <v>35.1547753772639</v>
       </c>
       <c r="R15" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S15" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271869</v>
       </c>
       <c r="T15" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642931</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492521</v>
       </c>
       <c r="H16" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I16" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328419</v>
       </c>
       <c r="J16" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401212</v>
       </c>
       <c r="K16" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174037</v>
       </c>
       <c r="L16" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310972</v>
       </c>
       <c r="M16" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N16" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717966</v>
       </c>
       <c r="O16" t="n">
-        <v>32.63489410613612</v>
+        <v>32.63489410613611</v>
       </c>
       <c r="P16" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997135</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527783</v>
       </c>
       <c r="R16" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S16" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261055</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377131</v>
       </c>
       <c r="U16" t="n">
         <v>0.01259386188814104</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.51472400346841</v>
       </c>
       <c r="H17" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520855</v>
       </c>
       <c r="I17" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J17" t="n">
-        <v>43.68655638937702</v>
+        <v>43.686556389377</v>
       </c>
       <c r="K17" t="n">
-        <v>65.47482345619483</v>
+        <v>65.4748234561948</v>
       </c>
       <c r="L17" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734117</v>
       </c>
       <c r="M17" t="n">
-        <v>90.38103117402254</v>
+        <v>90.3810311740225</v>
       </c>
       <c r="N17" t="n">
-        <v>91.84349074887717</v>
+        <v>91.84349074887713</v>
       </c>
       <c r="O17" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938812</v>
       </c>
       <c r="P17" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376174</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954929</v>
       </c>
       <c r="R17" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287253</v>
       </c>
       <c r="S17" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T17" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182966</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897254</v>
       </c>
       <c r="H18" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771822</v>
       </c>
       <c r="I18" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931337</v>
       </c>
       <c r="J18" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K18" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905184</v>
       </c>
       <c r="L18" t="n">
-        <v>59.79718097345554</v>
+        <v>59.79718097345551</v>
       </c>
       <c r="M18" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520804</v>
       </c>
       <c r="N18" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043608</v>
       </c>
       <c r="O18" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554269</v>
       </c>
       <c r="P18" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785993</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.15477537726391</v>
+        <v>35.1547753772639</v>
       </c>
       <c r="R18" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S18" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271869</v>
       </c>
       <c r="T18" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642931</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492521</v>
       </c>
       <c r="H19" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I19" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328419</v>
       </c>
       <c r="J19" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401212</v>
       </c>
       <c r="K19" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174037</v>
       </c>
       <c r="L19" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310972</v>
       </c>
       <c r="M19" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N19" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717966</v>
       </c>
       <c r="O19" t="n">
-        <v>32.63489410613612</v>
+        <v>32.63489410613611</v>
       </c>
       <c r="P19" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997135</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527783</v>
       </c>
       <c r="R19" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S19" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261055</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377131</v>
       </c>
       <c r="U19" t="n">
         <v>0.01259386188814104</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.51472400346841</v>
       </c>
       <c r="H23" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520855</v>
       </c>
       <c r="I23" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J23" t="n">
-        <v>43.68655638937702</v>
+        <v>43.686556389377</v>
       </c>
       <c r="K23" t="n">
-        <v>65.47482345619483</v>
+        <v>65.4748234561948</v>
       </c>
       <c r="L23" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734117</v>
       </c>
       <c r="M23" t="n">
-        <v>90.38103117402254</v>
+        <v>90.3810311740225</v>
       </c>
       <c r="N23" t="n">
-        <v>91.84349074887717</v>
+        <v>91.84349074887713</v>
       </c>
       <c r="O23" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938812</v>
       </c>
       <c r="P23" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376174</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954929</v>
       </c>
       <c r="R23" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287253</v>
       </c>
       <c r="S23" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T23" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182966</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897254</v>
       </c>
       <c r="H24" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771822</v>
       </c>
       <c r="I24" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931337</v>
       </c>
       <c r="J24" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K24" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905184</v>
       </c>
       <c r="L24" t="n">
-        <v>59.79718097345554</v>
+        <v>59.79718097345551</v>
       </c>
       <c r="M24" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520804</v>
       </c>
       <c r="N24" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043608</v>
       </c>
       <c r="O24" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554269</v>
       </c>
       <c r="P24" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785993</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.15477537726391</v>
+        <v>35.1547753772639</v>
       </c>
       <c r="R24" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S24" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271869</v>
       </c>
       <c r="T24" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.01811852771642931</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.2308874679492521</v>
       </c>
       <c r="H25" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I25" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328419</v>
       </c>
       <c r="J25" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401212</v>
       </c>
       <c r="K25" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174037</v>
       </c>
       <c r="L25" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310972</v>
       </c>
       <c r="M25" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N25" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717966</v>
       </c>
       <c r="O25" t="n">
-        <v>32.63489410613612</v>
+        <v>32.63489410613611</v>
       </c>
       <c r="P25" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997135</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527783</v>
       </c>
       <c r="R25" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S25" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261055</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377131</v>
       </c>
       <c r="U25" t="n">
         <v>0.01259386188814104</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H26" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I26" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J26" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K26" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L26" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M26" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N26" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O26" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P26" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R26" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S26" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T26" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H27" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I27" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J27" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K27" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L27" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M27" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N27" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O27" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P27" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R27" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S27" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T27" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H28" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I28" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J28" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K28" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L28" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M28" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N28" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O28" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P28" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R28" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S28" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H29" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I29" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J29" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K29" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L29" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M29" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N29" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O29" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P29" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R29" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S29" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T29" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H30" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I30" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J30" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K30" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L30" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M30" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N30" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O30" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P30" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R30" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S30" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T30" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H31" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I31" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J31" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K31" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L31" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M31" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N31" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O31" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P31" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R31" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S31" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H32" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I32" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J32" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K32" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L32" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M32" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N32" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O32" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P32" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R32" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S32" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T32" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H33" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I33" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J33" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K33" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L33" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M33" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N33" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O33" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P33" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R33" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S33" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T33" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H34" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I34" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J34" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K34" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L34" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M34" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N34" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O34" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P34" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R34" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S34" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H35" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I35" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J35" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K35" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L35" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M35" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N35" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O35" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P35" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R35" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S35" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T35" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H36" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I36" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J36" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K36" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L36" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M36" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N36" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O36" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P36" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R36" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S36" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T36" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H37" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I37" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J37" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K37" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L37" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M37" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N37" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O37" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P37" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R37" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S37" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H38" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I38" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J38" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K38" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L38" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M38" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N38" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O38" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P38" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R38" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S38" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T38" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H39" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I39" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J39" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K39" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L39" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M39" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N39" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O39" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P39" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R39" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S39" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T39" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H40" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I40" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J40" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K40" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L40" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M40" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N40" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O40" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P40" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R40" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S40" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H41" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I41" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J41" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K41" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L41" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M41" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N41" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O41" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P41" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R41" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S41" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T41" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H42" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I42" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J42" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K42" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L42" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M42" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N42" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O42" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P42" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R42" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S42" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T42" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H43" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I43" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J43" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K43" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L43" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M43" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N43" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O43" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P43" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R43" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S43" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5147240034684102</v>
+        <v>0.5147240034684097</v>
       </c>
       <c r="H44" t="n">
-        <v>5.271417200520856</v>
+        <v>5.271417200520853</v>
       </c>
       <c r="I44" t="n">
-        <v>19.8438971437159</v>
+        <v>19.84389714371589</v>
       </c>
       <c r="J44" t="n">
-        <v>43.68655638937702</v>
+        <v>43.68655638937699</v>
       </c>
       <c r="K44" t="n">
-        <v>65.47482345619483</v>
+        <v>65.47482345619478</v>
       </c>
       <c r="L44" t="n">
-        <v>81.2273081773412</v>
+        <v>81.22730817734114</v>
       </c>
       <c r="M44" t="n">
-        <v>90.38103117402254</v>
+        <v>90.38103117402248</v>
       </c>
       <c r="N44" t="n">
-        <v>91.84349074887717</v>
+        <v>91.8434907488771</v>
       </c>
       <c r="O44" t="n">
-        <v>86.72520393938815</v>
+        <v>86.72520393938809</v>
       </c>
       <c r="P44" t="n">
-        <v>74.01795510376176</v>
+        <v>74.01795510376172</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.58440172954931</v>
+        <v>55.58440172954928</v>
       </c>
       <c r="R44" t="n">
-        <v>32.33303168287254</v>
+        <v>32.33303168287252</v>
       </c>
       <c r="S44" t="n">
-        <v>11.72927322903641</v>
+        <v>11.7292732290364</v>
       </c>
       <c r="T44" t="n">
-        <v>2.253204325182967</v>
+        <v>2.253204325182965</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0411779202774728</v>
+        <v>0.04117792027747277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2754016212897255</v>
+        <v>0.2754016212897253</v>
       </c>
       <c r="H45" t="n">
-        <v>2.659799868771823</v>
+        <v>2.659799868771821</v>
       </c>
       <c r="I45" t="n">
-        <v>9.48202950493134</v>
+        <v>9.482029504931333</v>
       </c>
       <c r="J45" t="n">
-        <v>26.01941370264025</v>
+        <v>26.01941370264024</v>
       </c>
       <c r="K45" t="n">
-        <v>44.47132232905187</v>
+        <v>44.47132232905183</v>
       </c>
       <c r="L45" t="n">
-        <v>59.79718097345554</v>
+        <v>59.7971809734555</v>
       </c>
       <c r="M45" t="n">
-        <v>69.78048974520807</v>
+        <v>69.78048974520803</v>
       </c>
       <c r="N45" t="n">
-        <v>71.6273716704361</v>
+        <v>71.62737167043606</v>
       </c>
       <c r="O45" t="n">
-        <v>65.52505153554272</v>
+        <v>65.52505153554267</v>
       </c>
       <c r="P45" t="n">
-        <v>52.58963064785996</v>
+        <v>52.58963064785992</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.15477537726391</v>
+        <v>35.15477537726389</v>
       </c>
       <c r="R45" t="n">
-        <v>17.09905855691823</v>
+        <v>17.09905855691822</v>
       </c>
       <c r="S45" t="n">
-        <v>5.115464325271872</v>
+        <v>5.115464325271868</v>
       </c>
       <c r="T45" t="n">
         <v>1.110061798093235</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01811852771642932</v>
+        <v>0.0181185277164293</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2308874679492522</v>
+        <v>0.230887467949252</v>
       </c>
       <c r="H46" t="n">
-        <v>2.052799487766989</v>
+        <v>2.052799487766988</v>
       </c>
       <c r="I46" t="n">
-        <v>6.943415854328421</v>
+        <v>6.943415854328417</v>
       </c>
       <c r="J46" t="n">
-        <v>16.32374398401213</v>
+        <v>16.32374398401211</v>
       </c>
       <c r="K46" t="n">
-        <v>26.82492582174038</v>
+        <v>26.82492582174036</v>
       </c>
       <c r="L46" t="n">
-        <v>34.32666955310973</v>
+        <v>34.32666955310971</v>
       </c>
       <c r="M46" t="n">
-        <v>36.19266008953595</v>
+        <v>36.19266008953593</v>
       </c>
       <c r="N46" t="n">
-        <v>35.33207952717967</v>
+        <v>35.33207952717965</v>
       </c>
       <c r="O46" t="n">
-        <v>32.63489410613612</v>
+        <v>32.6348941061361</v>
       </c>
       <c r="P46" t="n">
-        <v>27.92478975997136</v>
+        <v>27.92478975997134</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.33367697527784</v>
+        <v>19.33367697527782</v>
       </c>
       <c r="R46" t="n">
-        <v>10.38154014979092</v>
+        <v>10.38154014979091</v>
       </c>
       <c r="S46" t="n">
-        <v>4.023738873261057</v>
+        <v>4.023738873261054</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9865191812377135</v>
+        <v>0.9865191812377129</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01259386188814104</v>
+        <v>0.01259386188814103</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>34.21045329478271</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34.21045329478271</v>
       </c>
       <c r="O8" t="n">
         <v>39.88136420416884</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>30.80200519947019</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481458</v>
       </c>
       <c r="K11" t="n">
         <v>187.9984477613501</v>
@@ -35416,7 +35416,7 @@
         <v>285.722716714072</v>
       </c>
       <c r="M11" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N11" t="n">
         <v>323.0065551306645</v>
@@ -35428,7 +35428,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.64394438826193</v>
+        <v>59.64394438826191</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N12" t="n">
-        <v>23.3843729195336</v>
+        <v>393.7031606126321</v>
       </c>
       <c r="O12" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P12" t="n">
-        <v>253.1658628044226</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.69613915520431</v>
+        <v>49.69613915520436</v>
       </c>
       <c r="K13" t="n">
         <v>134.2617562028782</v>
       </c>
       <c r="L13" t="n">
-        <v>193.9990398810901</v>
+        <v>193.9990398810902</v>
       </c>
       <c r="M13" t="n">
-        <v>208.6013081854156</v>
+        <v>208.6013081854157</v>
       </c>
       <c r="N13" t="n">
         <v>211.7403392907887</v>
       </c>
       <c r="O13" t="n">
-        <v>189.4143422350783</v>
+        <v>189.4143422350784</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2580517576263</v>
+        <v>156.2580517576264</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.78421719840078</v>
+        <v>61.78421719840082</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481458</v>
       </c>
       <c r="K14" t="n">
         <v>187.9984477613501</v>
@@ -35653,7 +35653,7 @@
         <v>285.722716714072</v>
       </c>
       <c r="M14" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N14" t="n">
         <v>323.0065551306645</v>
@@ -35665,7 +35665,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.64394438826193</v>
+        <v>59.64394438826191</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>185.1197658221336</v>
       </c>
       <c r="L15" t="n">
         <v>310.3806198036757</v>
@@ -35735,16 +35735,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N15" t="n">
-        <v>422.8548988334673</v>
+        <v>56.87177737619885</v>
       </c>
       <c r="O15" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P15" t="n">
-        <v>189.4554320579642</v>
+        <v>253.1658628044226</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.69613915520431</v>
+        <v>49.69613915520441</v>
       </c>
       <c r="K16" t="n">
         <v>134.2617562028782</v>
       </c>
       <c r="L16" t="n">
-        <v>193.9990398810901</v>
+        <v>193.9990398810902</v>
       </c>
       <c r="M16" t="n">
-        <v>208.6013081854156</v>
+        <v>208.6013081854157</v>
       </c>
       <c r="N16" t="n">
-        <v>211.7403392907887</v>
+        <v>211.7403392907888</v>
       </c>
       <c r="O16" t="n">
-        <v>189.4143422350783</v>
+        <v>189.4143422350784</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2580517576263</v>
+        <v>156.2580517576264</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.78421719840078</v>
+        <v>61.78421719840088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481458</v>
       </c>
       <c r="K17" t="n">
         <v>187.9984477613501</v>
@@ -35890,7 +35890,7 @@
         <v>285.722716714072</v>
       </c>
       <c r="M17" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N17" t="n">
         <v>323.0065551306645</v>
@@ -35902,7 +35902,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.64394438826193</v>
+        <v>59.64394438826191</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N18" t="n">
-        <v>422.8548988334673</v>
+        <v>241.9915431983328</v>
       </c>
       <c r="O18" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P18" t="n">
-        <v>189.4554320579642</v>
+        <v>253.1658628044226</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390702</v>
       </c>
       <c r="L19" t="n">
         <v>71.78779978211901</v>
       </c>
       <c r="M19" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N19" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O19" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P19" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865519</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N21" t="n">
-        <v>422.8548988334673</v>
+        <v>422.8548988334672</v>
       </c>
       <c r="O21" t="n">
         <v>336.1105252500081</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481458</v>
       </c>
       <c r="K23" t="n">
         <v>187.9984477613501</v>
@@ -36364,7 +36364,7 @@
         <v>285.722716714072</v>
       </c>
       <c r="M23" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N23" t="n">
         <v>323.0065551306645</v>
@@ -36376,7 +36376,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.64394438826193</v>
+        <v>59.64394438826191</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>185.1197658221336</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>310.3806198036757</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4431668609821</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N24" t="n">
-        <v>422.8548988334672</v>
+        <v>393.7031606126321</v>
       </c>
       <c r="O24" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P24" t="n">
-        <v>253.1658628044226</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390702</v>
       </c>
       <c r="L25" t="n">
         <v>71.78779978211901</v>
       </c>
       <c r="M25" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N25" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O25" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P25" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865519</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>185.7393664548986</v>
+        <v>185.7393664548985</v>
       </c>
       <c r="K26" t="n">
-        <v>330.7105349614342</v>
+        <v>330.7105349614341</v>
       </c>
       <c r="L26" t="n">
         <v>428.434803914156</v>
       </c>
       <c r="M26" t="n">
-        <v>475.9996158100615</v>
+        <v>475.9996158100614</v>
       </c>
       <c r="N26" t="n">
-        <v>465.7186423307485</v>
+        <v>465.7186423307484</v>
       </c>
       <c r="O26" t="n">
         <v>401.1237235165827</v>
@@ -36616,7 +36616,7 @@
         <v>202.3560315883459</v>
       </c>
       <c r="R26" t="n">
-        <v>33.19429618207947</v>
+        <v>33.19429618207943</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K27" t="n">
         <v>185.1197658221336</v>
@@ -36683,13 +36683,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N27" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O27" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P27" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q27" t="n">
         <v>117.152924888676</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>70.19698625631715</v>
       </c>
       <c r="K28" t="n">
-        <v>16.92832007549619</v>
+        <v>154.762603303991</v>
       </c>
       <c r="L28" t="n">
-        <v>214.499886982203</v>
+        <v>88.75368179690523</v>
       </c>
       <c r="M28" t="n">
         <v>229.1021552865285</v>
       </c>
       <c r="N28" t="n">
-        <v>89.52909919181756</v>
+        <v>232.2411863919015</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9151893361912</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P28" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865518</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.28506429951366</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>185.7393664548986</v>
+        <v>185.7393664548985</v>
       </c>
       <c r="K29" t="n">
         <v>330.7105349614341</v>
       </c>
       <c r="L29" t="n">
-        <v>428.4348039141561</v>
+        <v>428.434803914156</v>
       </c>
       <c r="M29" t="n">
-        <v>475.9996158100615</v>
+        <v>475.9996158100614</v>
       </c>
       <c r="N29" t="n">
-        <v>465.7186423307485</v>
+        <v>465.7186423307484</v>
       </c>
       <c r="O29" t="n">
         <v>401.1237235165827</v>
@@ -36853,7 +36853,7 @@
         <v>202.3560315883459</v>
       </c>
       <c r="R29" t="n">
-        <v>33.19429618207944</v>
+        <v>33.19429618207943</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K30" t="n">
         <v>185.1197658221336</v>
@@ -36920,13 +36920,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N30" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O30" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P30" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q30" t="n">
         <v>117.152924888676</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.19698625631716</v>
+        <v>70.19698625631715</v>
       </c>
       <c r="K31" t="n">
         <v>154.762603303991</v>
@@ -36996,19 +36996,19 @@
         <v>214.499886982203</v>
       </c>
       <c r="M31" t="n">
-        <v>163.7829730018008</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N31" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O31" t="n">
-        <v>67.20310213610719</v>
+        <v>209.9151893361911</v>
       </c>
       <c r="P31" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865518</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.28506429951364</v>
+        <v>16.96588201478615</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>341.0286415083366</v>
       </c>
       <c r="L32" t="n">
-        <v>438.7529104610586</v>
+        <v>438.7529104610585</v>
       </c>
       <c r="M32" t="n">
-        <v>486.317722356964</v>
+        <v>388.5708686158266</v>
       </c>
       <c r="N32" t="n">
-        <v>323.0065551306645</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O32" t="n">
-        <v>313.6949763223473</v>
+        <v>411.4418300634852</v>
       </c>
       <c r="P32" t="n">
-        <v>336.2666344877024</v>
+        <v>336.2666344877023</v>
       </c>
       <c r="Q32" t="n">
         <v>212.6741381352484</v>
       </c>
       <c r="R32" t="n">
-        <v>43.51240272898197</v>
+        <v>43.51240272898195</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K33" t="n">
         <v>185.1197658221336</v>
@@ -37157,13 +37157,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N33" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O33" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P33" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q33" t="n">
         <v>117.152924888676</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.21506280391129</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>80.51509280321967</v>
       </c>
       <c r="K34" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390701</v>
       </c>
       <c r="L34" t="n">
-        <v>71.78779978211901</v>
+        <v>71.787799782119</v>
       </c>
       <c r="M34" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N34" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O34" t="n">
-        <v>220.2332958830937</v>
+        <v>105.3338216905197</v>
       </c>
       <c r="P34" t="n">
-        <v>158.9076868201986</v>
+        <v>187.0770054056417</v>
       </c>
       <c r="Q34" t="n">
-        <v>92.60317084641616</v>
+        <v>92.60317084641615</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.0272792548146</v>
+        <v>235.6303370678316</v>
       </c>
       <c r="K35" t="n">
-        <v>187.9984477613501</v>
+        <v>331.0110219402692</v>
       </c>
       <c r="L35" t="n">
         <v>285.722716714072</v>
       </c>
       <c r="M35" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N35" t="n">
-        <v>323.0065551306645</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O35" t="n">
-        <v>401.4242104954175</v>
+        <v>258.4116363164987</v>
       </c>
       <c r="P35" t="n">
-        <v>375.8394985537329</v>
+        <v>183.2364407407159</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.64394438826193</v>
+        <v>59.64394438826189</v>
       </c>
       <c r="R35" t="n">
-        <v>83.08526679501243</v>
+        <v>83.08526679501247</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K36" t="n">
         <v>185.1197658221336</v>
@@ -37394,13 +37394,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N36" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O36" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P36" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q36" t="n">
         <v>117.152924888676</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390701</v>
       </c>
       <c r="L37" t="n">
-        <v>85.65628129559266</v>
+        <v>85.65628129559246</v>
       </c>
       <c r="M37" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N37" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O37" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P37" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865518</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.222647088608902</v>
+        <v>7.222647088608891</v>
       </c>
       <c r="J38" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481457</v>
       </c>
       <c r="K38" t="n">
-        <v>187.9984477613501</v>
+        <v>323.7883748516602</v>
       </c>
       <c r="L38" t="n">
         <v>285.722716714072</v>
       </c>
       <c r="M38" t="n">
-        <v>333.2875286099775</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N38" t="n">
-        <v>458.7964822209743</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O38" t="n">
         <v>258.4116363164987</v>
@@ -37564,7 +37564,7 @@
         <v>252.2470022012789</v>
       </c>
       <c r="R38" t="n">
-        <v>83.08526679501249</v>
+        <v>83.08526679501247</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K39" t="n">
         <v>185.1197658221336</v>
@@ -37631,13 +37631,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N39" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O39" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P39" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q39" t="n">
         <v>117.1529248886761</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390701</v>
       </c>
       <c r="L40" t="n">
-        <v>71.78779978211901</v>
+        <v>71.787799782119</v>
       </c>
       <c r="M40" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N40" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O40" t="n">
-        <v>81.0715836495805</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P40" t="n">
-        <v>34.0468116586552</v>
+        <v>47.91529317212856</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.0272792548146</v>
+        <v>43.02727925481457</v>
       </c>
       <c r="K41" t="n">
-        <v>187.9984477613501</v>
+        <v>380.601505574367</v>
       </c>
       <c r="L41" t="n">
         <v>285.722716714072</v>
       </c>
       <c r="M41" t="n">
-        <v>333.2875286099775</v>
+        <v>476.3001027888966</v>
       </c>
       <c r="N41" t="n">
-        <v>323.0065551306645</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O41" t="n">
         <v>258.4116363164987</v>
       </c>
       <c r="P41" t="n">
-        <v>326.2490149196347</v>
+        <v>183.2364407407159</v>
       </c>
       <c r="Q41" t="n">
-        <v>252.2470022012789</v>
+        <v>59.64394438826189</v>
       </c>
       <c r="R41" t="n">
-        <v>83.08526679501249</v>
+        <v>83.08526679501239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666539</v>
       </c>
       <c r="K42" t="n">
         <v>185.1197658221336</v>
@@ -37868,13 +37868,13 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N42" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O42" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P42" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q42" t="n">
         <v>117.152924888676</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390701</v>
       </c>
       <c r="L43" t="n">
-        <v>71.78779978211901</v>
+        <v>71.787799782119</v>
       </c>
       <c r="M43" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N43" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O43" t="n">
-        <v>67.20310213610719</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P43" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865518</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.86848151347332</v>
+        <v>13.8684815134739</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.222647088608902</v>
+        <v>7.222647088608891</v>
       </c>
       <c r="J44" t="n">
-        <v>43.0272792548146</v>
+        <v>235.6303370678316</v>
       </c>
       <c r="K44" t="n">
         <v>187.9984477613501</v>
@@ -38023,22 +38023,22 @@
         <v>285.722716714072</v>
       </c>
       <c r="M44" t="n">
-        <v>469.0774557002867</v>
+        <v>333.2875286099774</v>
       </c>
       <c r="N44" t="n">
-        <v>323.0065551306645</v>
+        <v>323.0065551306644</v>
       </c>
       <c r="O44" t="n">
         <v>258.4116363164987</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8394985537329</v>
+        <v>183.2364407407159</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.64394438826193</v>
+        <v>195.4338714785719</v>
       </c>
       <c r="R44" t="n">
-        <v>83.08526679501249</v>
+        <v>83.08526679501247</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.4874044566654</v>
+        <v>33.48740445666557</v>
       </c>
       <c r="K45" t="n">
         <v>185.1197658221336</v>
@@ -38105,16 +38105,16 @@
         <v>415.5330729712401</v>
       </c>
       <c r="N45" t="n">
-        <v>442.0852717064818</v>
+        <v>442.0852717064817</v>
       </c>
       <c r="O45" t="n">
-        <v>336.1105252500081</v>
+        <v>336.110525250008</v>
       </c>
       <c r="P45" t="n">
-        <v>253.1658628044226</v>
+        <v>253.1658628044225</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.1529248886761</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.05051610390703</v>
+        <v>12.05051610390701</v>
       </c>
       <c r="L46" t="n">
-        <v>71.78779978211901</v>
+        <v>71.787799782119</v>
       </c>
       <c r="M46" t="n">
-        <v>86.39006808644451</v>
+        <v>86.3900680864445</v>
       </c>
       <c r="N46" t="n">
-        <v>89.52909919181756</v>
+        <v>89.52909919181755</v>
       </c>
       <c r="O46" t="n">
-        <v>81.0715836495805</v>
+        <v>67.20310213610716</v>
       </c>
       <c r="P46" t="n">
-        <v>34.0468116586552</v>
+        <v>34.04681165865518</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.86848151347338</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
